--- a/CCRCs_Clustering/Results/Clustering_results_DCgain_vdc.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_DCgain_vdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="256">
   <si>
     <t>leaf</t>
   </si>
@@ -39,61 +39,55 @@
     <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&gt;-0.092" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Qg3&gt;0.119" -&gt; "Ql9&gt;-0.145" -&gt; "Pg3&gt;0.217" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Qg3&gt;0.119" -&gt; "Ql9&gt;-0.145" -&gt; "Pg3&lt;=0.217" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Qg3&gt;0.119" -&gt; "Ql9&lt;=-0.145" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Qg3&lt;=0.119" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Pg3&gt;0.119" -&gt; "Pl9&gt;-0.193" -&gt; "Qg3&gt;0.217" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Pg3&gt;0.119" -&gt; "Pl9&gt;-0.193" -&gt; "Qg3&lt;=0.217" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Pg3&gt;0.119" -&gt; "Pl9&lt;=-0.193" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pl5&lt;=-0.092" -&gt; "Pg3&lt;=0.119" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Ql2&gt;-0.212" -&gt; "Qg2&gt;0.071" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Ql2&gt;-0.212" -&gt; "Qg2&lt;=0.071" -&gt; "Pg2&lt;=0.115" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Ql2&gt;-0.212" -&gt; "Qg2&lt;=0.071" -&gt; "Pg2&gt;0.115" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Ql2&gt;-0.212" -&gt; "Qg2&lt;=0.057" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Ql2&gt;-0.212" -&gt; "Qg2&gt;0.057" -&gt; "Qg2&lt;=0.071" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Ql2&lt;=-0.212" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pg1&gt;0.049" -&gt; "Pmmc3&gt;-0.103" -&gt; "Pg2&lt;=0.104" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pg1&gt;0.469" -&gt; "Pmmc3&gt;-0.103" -&gt; "Pg2&gt;0.104" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pg1&gt;0.049" -&gt; "Pmmc3&gt;-0.772" -&gt; "Pmmc3&lt;=-0.103" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pg1&gt;0.049" -&gt; "Pg1&lt;=0.469" -&gt; "Pmmc3&gt;-0.103" -&gt; "Pg2&gt;0.104" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pg1&gt;0.049" -&gt; "Pmmc3&lt;=-0.772" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.31" -&gt; "Ql5&gt;-0.172" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.31" -&gt; "Pg1&lt;=0.049" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.31" -&gt; "Ql5&lt;=-0.172" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Ql5&gt;-0.107" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Ql5&lt;=-0.107" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.695" -&gt; "Qg1&gt;0.159" -&gt; </t>
+    <t xml:space="preserve">"Pl7&gt;-0.093" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.093" -&gt; "Pmmc3&lt;=-0.649" -&gt; "Pl2&gt;-0.31" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.093" -&gt; "Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.419" -&gt; "Pl2&gt;-0.31" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.093" -&gt; "Pmmc3&gt;-0.419" -&gt; "Ql2&gt;-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.093" -&gt; "Pmmc3&lt;=-0.419" -&gt; "Pl2&lt;=-0.31" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.093" -&gt; "Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.039" -&gt; "Ql2&lt;=-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl7&lt;=-0.093" -&gt; "Pmmc3&gt;0.039" -&gt; "Ql2&lt;=-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Ql7&gt;-0.097" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Ql7&lt;=-0.097" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.212" -&gt; "Qg2&gt;0.104" -&gt; </t>
@@ -108,58 +102,64 @@
     <t xml:space="preserve">"Pmmc3&lt;=0.212" -&gt; "Qg2&lt;=0.104" -&gt; "Pg1&gt;0.299" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.695" -&gt; "Qg1&lt;=0.159" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pmmc3&lt;=-0.052" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pmmc3&gt;-0.052" -&gt; "Pmmc3&lt;=0.049" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pmmc3&gt;0.049" -&gt; "Pl7&gt;-0.112" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.695" -&gt; "Pmmc3&lt;=-0.419" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pmmc3&gt;0.049" -&gt; "Pl7&lt;=-0.112" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.17" -&gt; "Pmmc3&lt;=0.425" -&gt; "Qg2&gt;0.069" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.041" -&gt; "Ql2&gt;-0.193" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.17" -&gt; "Pmmc3&lt;=0.425" -&gt; "Qg2&lt;=0.069" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.041" -&gt; "Ql2&lt;=-0.193" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Ql2&gt;-0.196" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.17" -&gt; "Pmmc3&gt;0.425" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Ql2&lt;=-0.196" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pmmc3&lt;=-0.052" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pmmc3&gt;-0.052" -&gt; "Pmmc3&lt;=0.049" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pmmc3&gt;0.049" -&gt; "Pl9&gt;-0.151" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Pmmc3&gt;0.049" -&gt; "Pl9&lt;=-0.151" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Pmmc3&lt;=0.425" -&gt; "Qg2&gt;0.069" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.125" -&gt; "Pmmc3&lt;=0.212" -&gt; "Pl9&gt;-0.245" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Pmmc3&lt;=0.425" -&gt; "Qg2&lt;=0.069" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.125" -&gt; "Pmmc3&lt;=0.212" -&gt; "Pl9&lt;=-0.245" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Pmmc3&gt;0.425" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.359" -&gt; "Pmmc3&lt;=-0.125" -&gt; "Ql2&gt;-0.262" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.772" -&gt; "Pmmc3&lt;=-0.359" -&gt; "Ql2&gt;-0.262" -&gt; "Ql7&gt;-0.109" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.772" -&gt; "Pmmc3&lt;=-0.359" -&gt; "Ql2&gt;-0.262" -&gt; "Ql7&lt;=-0.109" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.772" -&gt; "Ql2&gt;-0.262" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.125" -&gt; "Ql2&lt;=-0.262" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&gt;-0.144" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&lt;=-0.144" -&gt; "Qg3&gt;0.095" -&gt; "Pl5&lt;=-0.136" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.131" -&gt; "Pl2&lt;=-0.144" -&gt; "Qg3&gt;0.095" -&gt; "Pl5&gt;-0.136" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Ql9&lt;=-0.131" -&gt; "Pl2&lt;=-0.144" -&gt; "Qg3&gt;0.095" -&gt; "Pl5&gt;-0.136" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&lt;=-0.144" -&gt; "Qg3&lt;=0.095" -&gt; </t>
+    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&lt;=-0.144" -&gt; "Pg3&gt;0.095" -&gt; "Ql5&lt;=-0.102" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&lt;=-0.144" -&gt; "Pg3&gt;0.095" -&gt; "Ql5&gt;-0.102" -&gt; "Pl9&gt;-0.175" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&lt;=-0.144" -&gt; "Pg3&gt;0.095" -&gt; "Ql5&gt;-0.102" -&gt; "Pl9&lt;=-0.175" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql9&gt;-0.172" -&gt; "Pl2&lt;=-0.144" -&gt; "Pg3&lt;=0.095" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Ql9&lt;=-0.172" -&gt; "Ql2&gt;-0.172" -&gt; </t>
@@ -171,25 +171,40 @@
     <t xml:space="preserve">"Ql9&lt;=-0.172" -&gt; "Ql2&gt;-0.212" -&gt; "Ql2&lt;=-0.172" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg3&gt;0.176" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg3&lt;=0.176" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl2&gt;-0.331" -&gt; "Qg3&gt;0.236" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl2&gt;-0.331" -&gt; "Qg3&lt;=0.236" -&gt; "Qg1&gt;0.236" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl2&gt;-0.331" -&gt; "Qg3&lt;=0.236" -&gt; "Qg1&lt;=0.236" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Qg3&gt;0.183" -&gt; "Pg1&gt;0.516" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Qg3&gt;0.183" -&gt; "Pg1&lt;=0.516" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.227" -&gt; "Qg3&lt;=0.183" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Qg3&gt;0.248" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.227" -&gt; "Qg3&lt;=0.248" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&gt;0.078" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Qg1&lt;=0.078" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Ql2&gt;-0.248" -&gt; "Pg3&gt;0.236" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Ql2&gt;-0.248" -&gt; "Pg3&lt;=0.236" -&gt; "Qg1&gt;0.236" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Ql2&gt;-0.248" -&gt; "Pg3&lt;=0.236" -&gt; "Qg1&lt;=0.236" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pg3&lt;=0.148" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl2&lt;=-0.331" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Ql2&lt;=-0.248" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pg3&gt;0.148" -&gt; </t>
@@ -198,37 +213,43 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.41" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pg3&gt;0.183" -&gt; "Pg2&gt;0.171" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pg3&gt;0.183" -&gt; "Pg2&lt;=0.171" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.17" -&gt; "Pg3&lt;=0.183" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.17" -&gt; "Pmmc3&lt;=0.425" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pg1&gt;0.451" -&gt; "Pg2&gt;0.103" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pg1&gt;0.451" -&gt; "Pg2&lt;=0.103" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.089" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&lt;=-0.089" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql9&gt;-0.153" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql9&lt;=-0.153" -&gt; "Pl9&gt;-0.261" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql9&lt;=-0.153" -&gt; "Pl9&lt;=-0.261" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pg1&gt;0.451" -&gt; "Qg1&lt;=0.245" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pg1&gt;0.451" -&gt; "Qg1&gt;0.245" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pg1&lt;=0.451" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql5&gt;-0.097" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql5&lt;=-0.097" -&gt; "Pl7&gt;-0.158" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql5&lt;=-0.097" -&gt; "Pl7&lt;=-0.158" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.159" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql5&gt;-0.097" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.159" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql5&lt;=-0.097" -&gt; "Qg3&lt;=0.238" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.159" -&gt; "Pmmc3&lt;=0.123" -&gt; "Ql5&lt;=-0.097" -&gt; "Qg3&gt;0.238" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.159" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.138" -&gt; </t>
@@ -240,39 +261,57 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.301" -&gt; "Pmmc3&lt;=-0.103" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql9&gt;-0.196" -&gt; "Pg1&gt;0.259" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; "Pg1&gt;0.259" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.544" -&gt; "Pmmc3&lt;=-0.301" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql9&gt;-0.196" -&gt; "Pg1&lt;=0.259" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql9&lt;=-0.196" -&gt; "Ql2&gt;-0.248" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.793" -&gt; "Pmmc3&lt;=-0.544" -&gt; "Ql9&gt;-0.195" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.049" -&gt; "Ql2&gt;-0.192" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql9&lt;=-0.196" -&gt; "Ql2&lt;=-0.248" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.278" -&gt; "Ql2&gt;-0.192" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.793" -&gt; "Pmmc3&lt;=-0.544" -&gt; "Ql9&lt;=-0.195" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.278" -&gt; "Ql2&lt;=-0.192" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; "Pg1&lt;=0.259" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; "Ql2&gt;-0.248" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.793" -&gt; "Pmmc3&lt;=-0.544" -&gt; "Pl9&gt;-0.261" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.052" -&gt; "Pl9&gt;-0.224" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.049" -&gt; "Pl2&gt;-0.257" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; "Ql2&lt;=-0.248" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.052" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.152" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.052" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl9&gt;-0.224" -&gt; "Pl9&lt;=-0.152" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl2&gt;-0.257" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.793" -&gt; "Pmmc3&lt;=-0.544" -&gt; "Pl9&lt;=-0.261" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.278" -&gt; "Pl9&lt;=-0.224" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.278" -&gt; "Pl2&lt;=-0.257" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.434" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.434" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.793" -&gt; </t>
   </si>
   <si>
@@ -315,13 +354,13 @@
     <t xml:space="preserve">"Pmmc3&gt;0.417" -&gt; "Pmmc3&lt;=0.719" -&gt; "Qg2&lt;=0.058" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.417" -&gt; "Pg3&gt;0.22" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg3&gt;0.22" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.686" -&gt; "Pmmc3&lt;=-0.525" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.417" -&gt; "Pg3&lt;=0.22" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg3&lt;=0.22" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pmmc3&lt;=0.829" -&gt; </t>
@@ -363,25 +402,25 @@
     <t xml:space="preserve">"Pmmc3&gt;0.866" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&gt;0.119" -&gt; "Ql9&gt;-0.149" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&gt;0.119" -&gt; "Ql9&lt;=-0.149" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&gt;0.119" -&gt; "Pl9&gt;-0.199" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&gt;0.119" -&gt; "Pl9&lt;=-0.199" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.698" -&gt; "Pmmc3&lt;=0.866" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&lt;=0.119" -&gt; "Pl5&gt;-0.15" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pl5&gt;-0.169" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&lt;=0.119" -&gt; "Pl5&lt;=-0.15" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pl5&lt;=-0.169" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&lt;=0.119" -&gt; "Ql5&gt;-0.112" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Ql5&gt;-0.127" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pg2&lt;=0.119" -&gt; "Ql5&lt;=-0.112" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Ql5&lt;=-0.127" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.586" -&gt; </t>
@@ -402,16 +441,16 @@
     <t xml:space="preserve">"Pmmc3&gt;0.257" -&gt; "Pmmc3&lt;=0.397" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Pg3&gt;0.239" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Qg3&gt;0.239" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.128" -&gt; "Pmmc3&lt;=0.257" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Pg3&lt;=0.239" -&gt; "Qg1&gt;0.171" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Pg3&lt;=0.239" -&gt; "Qg1&lt;=0.171" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Qg3&lt;=0.239" -&gt; "Qg1&gt;0.171" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Qg3&lt;=0.239" -&gt; "Qg1&lt;=0.171" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.686" -&gt; "Pl7&gt;-0.166" -&gt; </t>
@@ -468,16 +507,16 @@
     <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Pmmc3&lt;=0.866" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Qg1&lt;=0.216" -&gt; "Pl9&lt;=-0.314" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Qg1&lt;=0.216" -&gt; "Ql9&lt;=-0.236" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.561" -&gt; "Pmmc3&lt;=0.719" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.508" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Qg1&lt;=0.216" -&gt; "Pl9&gt;-0.314" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.508" -&gt; "Qg1&lt;=0.216" -&gt; "Pl9&gt;-0.314" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.508" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Qg1&lt;=0.216" -&gt; "Ql9&gt;-0.236" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.508" -&gt; "Qg1&lt;=0.216" -&gt; "Ql9&gt;-0.236" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.149" -&gt; "Pmmc3&lt;=0.397" -&gt; </t>
@@ -486,85 +525,58 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.149" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg2&gt;0.11" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&gt;-0.113" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&gt;-0.133" -&gt; "Ql2&lt;=-0.113" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&lt;=-0.133" -&gt; "Pl2&gt;-0.236" -&gt; "Pg3&lt;=0.066" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&lt;=-0.133" -&gt; "Pl2&gt;-0.236" -&gt; "Pg3&gt;0.066" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Pmmc3&lt;=0.63" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Ql2&gt;-0.157" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&lt;=-0.133" -&gt; "Pl2&lt;=-0.236" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Ql2&lt;=-0.157" -&gt; "Pl2&gt;-0.279" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Ql2&lt;=-0.157" -&gt; "Pl2&lt;=-0.279" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&lt;=-0.754" -&gt; "Ql9&gt;-0.2" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&lt;=-0.754" -&gt; "Ql9&lt;=-0.2" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.049" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.278" -&gt; "Qg1&gt;0.148" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.622" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.278" -&gt; "Qg1&lt;=0.148" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.524" -&gt; "Qg1&gt;0.121" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=-0.568" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.568" -&gt; "Pmmc3&lt;=-0.452" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.524" -&gt; "Qg1&lt;=0.121" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=-0.31" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.524" -&gt; "Pmmc3&lt;=0.682" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.682" -&gt; "Pg3&gt;0.081" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.31" -&gt; "Ql7&gt;-0.156" -&gt; "Pl9&gt;-0.309" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.682" -&gt; "Pg3&lt;=0.081" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.31" -&gt; "Ql7&gt;-0.156" -&gt; "Pl9&lt;=-0.309" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.017" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&gt;-0.17" -&gt; "Pg1&gt;0.516" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&gt;-0.17" -&gt; "Pg1&lt;=0.516" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pl5&gt;-0.13" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&lt;=-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pl5&lt;=-0.13" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl5&lt;=-0.13" -&gt; "Ql2&gt;-0.175" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl5&lt;=-0.13" -&gt; "Ql2&lt;=-0.175" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.754" -&gt; "Ql9&gt;-0.2" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.754" -&gt; "Ql9&lt;=-0.2" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.622" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=-0.452" -&gt; "Qg1&lt;=0.166" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=-0.452" -&gt; "Qg1&gt;0.166" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=-0.31" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.31" -&gt; "Pmmc3&lt;=-0.186" -&gt; "Ql2&gt;-0.271" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.186" -&gt; "Ql2&gt;-0.271" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.049" -&gt; "Ql2&gt;-0.17" -&gt; </t>
@@ -573,36 +585,33 @@
     <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&gt;-0.17" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.305" -&gt; "Ql2&lt;=-0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pl5&gt;-0.172" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql9&gt;-0.196" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.305" -&gt; "Ql2&lt;=-0.17" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; "Ql5&gt;-0.129" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pl5&lt;=-0.172" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pl5&gt;-0.174" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Ql5&gt;-0.116" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Ql9&lt;=-0.196" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; "Ql5&lt;=-0.129" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg2&lt;=0.11" -&gt; "Pmmc3&gt;-0.31" -&gt; "Ql7&lt;=-0.156" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pl5&gt;-0.174" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl5&gt;-0.154" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.305" -&gt; "Pl2&gt;-0.253" -&gt; </t>
   </si>
   <si>
@@ -612,12 +621,15 @@
     <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Pmmc3&lt;=0.305" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl5&lt;=-0.154" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Ql5&lt;=-0.116" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.305" -&gt; "Pl2&lt;=-0.253" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.31" -&gt; "Ql2&lt;=-0.271" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.622" -&gt; </t>
   </si>
   <si>
@@ -639,13 +651,19 @@
     <t>ind value</t>
   </si>
   <si>
-    <t>[50, 49, 48, 55]</t>
-  </si>
-  <si>
-    <t>[47, 62]</t>
-  </si>
-  <si>
-    <t>[51, 66, 46, 81, 61, 91, 86]</t>
+    <t>[55, 50, 49, 48]</t>
+  </si>
+  <si>
+    <t>[52, 47]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[46, 61, 66, 86, 81, 51, 91]</t>
   </si>
   <si>
     <t>[41]</t>
@@ -660,58 +678,67 @@
     <t>Pl2&gt;-0.227 and Pl5&gt;-0.092</t>
   </si>
   <si>
-    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Qg3&gt;0.119 and Ql9&gt;-0.145 and Pg3&gt;0.217</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Qg3&gt;0.119 and Ql9&gt;-0.145 and Pg3&lt;=0.217</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Qg3&gt;0.119 and Ql9&lt;=-0.145</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Qg3&lt;=0.119</t>
+    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Pg3&gt;0.119 and Pl9&gt;-0.193 and Qg3&gt;0.217</t>
+  </si>
+  <si>
+    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Pg3&gt;0.119 and Pl9&gt;-0.193 and Qg3&lt;=0.217</t>
+  </si>
+  <si>
+    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Pg3&gt;0.119 and Pl9&lt;=-0.193</t>
+  </si>
+  <si>
+    <t>Pl2&gt;-0.227 and Pl5&lt;=-0.092 and Pg3&lt;=0.119</t>
   </si>
   <si>
     <t>Pl2&lt;=-0.227 and Ql2&gt;-0.212 and Qg2&gt;0.071</t>
   </si>
   <si>
-    <t>Pl2&lt;=-0.227 and Ql2&gt;-0.212 and Qg2&lt;=0.071 and Pg2&lt;=0.115</t>
-  </si>
-  <si>
-    <t>Pl2&lt;=-0.227 and Ql2&gt;-0.212 and Qg2&lt;=0.071 and Pg2&gt;0.115</t>
+    <t>Pl2&lt;=-0.227 and Ql2&gt;-0.212 and Qg2&lt;=0.057</t>
+  </si>
+  <si>
+    <t>Pl2&lt;=-0.227 and Ql2&gt;-0.212 and Qg2&gt;0.057 and Qg2&lt;=0.071</t>
   </si>
   <si>
     <t>Pl2&lt;=-0.227 and Ql2&lt;=-0.212</t>
   </si>
   <si>
-    <t>Pl2&gt;-0.31 and Pg1&gt;0.049 and Pmmc3&gt;-0.103 and Pg2&lt;=0.104</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.31 and Pg1&gt;0.049 and Pmmc3&gt;-0.772 and Pmmc3&lt;=-0.103</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.31 and Pg1&gt;0.049 and Pg1&lt;=0.469 and Pmmc3&gt;-0.103 and Pg2&gt;0.104</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.31 and Pg1&gt;0.049 and Pmmc3&lt;=-0.772</t>
-  </si>
-  <si>
-    <t>Pl2&lt;=-0.31 and Ql5&gt;-0.172</t>
-  </si>
-  <si>
-    <t>Pl2&gt;-0.31 and Pg1&lt;=0.049</t>
-  </si>
-  <si>
-    <t>Pl2&lt;=-0.31 and Ql5&lt;=-0.172</t>
+    <t>Pl7&gt;-0.093</t>
+  </si>
+  <si>
+    <t>Pl7&lt;=-0.093 and Pmmc3&lt;=-0.649 and Pl2&gt;-0.31</t>
+  </si>
+  <si>
+    <t>Pl7&lt;=-0.093 and Pmmc3&gt;-0.649 and Pmmc3&lt;=-0.419 and Pl2&gt;-0.31</t>
+  </si>
+  <si>
+    <t>Pl7&lt;=-0.093 and Pmmc3&gt;-0.419 and Ql2&gt;-0.17</t>
+  </si>
+  <si>
+    <t>Pl7&lt;=-0.093 and Pmmc3&lt;=-0.419 and Pl2&lt;=-0.31</t>
+  </si>
+  <si>
+    <t>Pl7&lt;=-0.093 and Pmmc3&gt;-0.419 and Pmmc3&lt;=0.039 and Ql2&lt;=-0.17</t>
+  </si>
+  <si>
+    <t>Pl7&lt;=-0.093 and Pmmc3&gt;0.039 and Ql2&lt;=-0.17</t>
+  </si>
+  <si>
+    <t>Pmmc3&gt;0.212 and Ql7&gt;-0.097</t>
+  </si>
+  <si>
+    <t>Pmmc3&lt;=0.212 and Qg2&lt;=0.104 and Pg1&lt;=0.299 and Ql5&gt;-0.086</t>
+  </si>
+  <si>
+    <t>Pmmc3&gt;0.212</t>
   </si>
   <si>
     <t>Ql9&gt;-0.172 and Pl2&gt;-0.144</t>
   </si>
   <si>
-    <t>Ql9&gt;-0.172 and Pl2&lt;=-0.144 and Qg3&gt;0.095 and Pl5&lt;=-0.136</t>
-  </si>
-  <si>
-    <t>Ql9&gt;-0.172 and Pl2&lt;=-0.144 and Qg3&lt;=0.095</t>
+    <t>Ql9&gt;-0.172 and Pl2&lt;=-0.144 and Pg3&gt;0.095 and Ql5&lt;=-0.102</t>
+  </si>
+  <si>
+    <t>Ql9&gt;-0.172 and Pl2&lt;=-0.144 and Pg3&lt;=0.095</t>
   </si>
   <si>
     <t>Ql9&lt;=-0.172 and Ql2&gt;-0.172</t>
@@ -750,7 +777,7 @@
     <t>Pmmc3&gt;0.128 and Pmmc3&lt;=0.257</t>
   </si>
   <si>
-    <t>Pmmc3&lt;=-0.103 and Qg1&lt;=0.216 and Pl9&lt;=-0.314</t>
+    <t>Pmmc3&lt;=-0.103 and Qg1&lt;=0.216 and Ql9&lt;=-0.236</t>
   </si>
   <si>
     <t>lab</t>
@@ -1114,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1157,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1180,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1203,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1226,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1249,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1272,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1295,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1318,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1341,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1352,19 +1379,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.02117215770008878</v>
+        <v>0.02095393823492557</v>
       </c>
       <c r="D11">
-        <v>0.004371047190167792</v>
+        <v>0.004213472749649883</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1375,19 +1402,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.02143719900941892</v>
+        <v>0.02118194491872843</v>
       </c>
       <c r="D12">
-        <v>0.004397041300960261</v>
+        <v>0.004021078154681867</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1398,19 +1425,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0.02173818922432688</v>
+        <v>0.02140258327152884</v>
       </c>
       <c r="D13">
-        <v>0.004558818638652925</v>
+        <v>0.00421237888684858</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1421,19 +1448,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>0.02185061538252496</v>
+        <v>0.02150517220370347</v>
       </c>
       <c r="D14">
-        <v>0.004400890683378297</v>
+        <v>0.004364171487201299</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1444,19 +1471,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0.02188230668711158</v>
+        <v>0.02153767963793785</v>
       </c>
       <c r="D15">
-        <v>0.004765246867405227</v>
+        <v>0.004133649736462031</v>
       </c>
       <c r="E15">
         <v>16</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1467,19 +1494,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>0.0219255464714384</v>
+        <v>0.02162394033404528</v>
       </c>
       <c r="D16">
-        <v>0.004614787810265125</v>
+        <v>0.004336202805143395</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1490,19 +1517,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>0.0221623335145934</v>
+        <v>0.02180877257308929</v>
       </c>
       <c r="D17">
-        <v>0.004637297715071742</v>
+        <v>0.004574257116292626</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1513,19 +1540,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.022269565342873</v>
+        <v>0.02483560830132239</v>
       </c>
       <c r="D18">
-        <v>0.004650063511759593</v>
+        <v>6.561846459520947E-05</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1536,19 +1563,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>0.02483560830132239</v>
+        <v>0.02498622702020722</v>
       </c>
       <c r="D19">
-        <v>6.561846459520947E-05</v>
+        <v>8.025643546646559E-05</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1559,19 +1586,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0.02498622702020722</v>
+        <v>0.02502411156143991</v>
       </c>
       <c r="D20">
-        <v>8.025643546646559E-05</v>
+        <v>7.555746143419929E-05</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1585,16 +1612,16 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>0.02502082465050857</v>
+        <v>0.0251156388433277</v>
       </c>
       <c r="D21">
-        <v>0.0001115232636553103</v>
+        <v>1.384906127457943E-05</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1605,19 +1632,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.02502411156143991</v>
+        <v>0.02521028477834684</v>
       </c>
       <c r="D22">
-        <v>7.555746143419929E-05</v>
+        <v>0.0001039497513306233</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1628,19 +1655,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.0251156388433277</v>
+        <v>0.02529034116156836</v>
       </c>
       <c r="D23">
-        <v>1.384906127457943E-05</v>
+        <v>7.875888788053904E-05</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1651,19 +1678,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.02521028477834684</v>
+        <v>0.0253120609408811</v>
       </c>
       <c r="D24">
-        <v>0.0001039497513306233</v>
+        <v>0.0003891928952585171</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1674,19 +1701,19 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0.0254330353360243</v>
+      </c>
+      <c r="D25">
+        <v>0.0003879252111125478</v>
+      </c>
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>0.02529034116156836</v>
-      </c>
-      <c r="D25">
-        <v>7.875888788053904E-05</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
       <c r="F25">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1697,19 +1724,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.02529846545198111</v>
+        <v>0.02549408866007297</v>
       </c>
       <c r="D26">
-        <v>0.0001833574701901957</v>
+        <v>0.0004149967754397689</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1720,19 +1747,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.0253120609408811</v>
+        <v>0.02556527575245768</v>
       </c>
       <c r="D27">
-        <v>0.0003891928952585171</v>
+        <v>0.0004199593705552359</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1743,19 +1770,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.0254330353360243</v>
+        <v>0.02560034310947839</v>
       </c>
       <c r="D28">
-        <v>0.0003879252111125478</v>
+        <v>0.0001138383984592734</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1766,19 +1793,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0.02549408866007297</v>
+        <v>0.02567719614694886</v>
       </c>
       <c r="D29">
-        <v>0.0004149967754397689</v>
+        <v>0.0004213740178259483</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1789,19 +1816,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.02549457299549978</v>
+        <v>0.02578134175628793</v>
       </c>
       <c r="D30">
-        <v>0.0001582462022007341</v>
+        <v>8.982764887778404E-05</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1812,19 +1839,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0.02556527575245768</v>
+        <v>0.02586053352977824</v>
       </c>
       <c r="D31">
-        <v>0.0004199593705552359</v>
+        <v>0.0004034561312666727</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1835,19 +1862,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>0.02567719614694886</v>
+        <v>0.02597671304343771</v>
       </c>
       <c r="D32">
-        <v>0.0004213740178259483</v>
+        <v>0.0001072104308634004</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1858,19 +1885,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0.02571173285206976</v>
+        <v>0.02605198610802978</v>
       </c>
       <c r="D33">
-        <v>0.000115066134516997</v>
+        <v>0.0004153199993488489</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1881,19 +1908,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>0.02586053352977824</v>
+        <v>0.02617236455929008</v>
       </c>
       <c r="D34">
-        <v>0.0004034561312666727</v>
+        <v>0.0001085856423937762</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1907,16 +1934,16 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>0.02588478736859971</v>
+        <v>0.02627399517533621</v>
       </c>
       <c r="D35">
-        <v>9.65767892391998E-05</v>
+        <v>0.0001175992728941492</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1927,19 +1954,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>0.02604483937602202</v>
+        <v>0.02637890938055621</v>
       </c>
       <c r="D36">
-        <v>0.0001983361840283634</v>
+        <v>0.0001023712510970922</v>
       </c>
       <c r="E36">
         <v>7</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1950,19 +1977,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>0.02605198610802978</v>
+        <v>0.02649512049268507</v>
       </c>
       <c r="D37">
-        <v>0.0004153199993488489</v>
+        <v>0.0001326660128491304</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -1973,19 +2000,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>0.02627313321801576</v>
+        <v>0.02672993601013243</v>
       </c>
       <c r="D38">
-        <v>0.0001444990235269178</v>
+        <v>0.0002457969578005802</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -2008,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -2031,7 +2058,7 @@
         <v>28</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -2054,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -2077,7 +2104,7 @@
         <v>28</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -2100,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -2123,7 +2150,7 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -2146,7 +2173,7 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -2169,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -2180,19 +2207,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>0.03867664506873122</v>
+        <v>0.03772560610766643</v>
       </c>
       <c r="D47">
-        <v>0.01481508078859657</v>
+        <v>0.01427602941782372</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -2203,19 +2230,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.03873907794924156</v>
+        <v>0.03783766527321532</v>
       </c>
       <c r="D48">
-        <v>0.01467307025070269</v>
+        <v>0.01426492769319341</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -2226,19 +2253,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0.039375755234828</v>
+        <v>0.03795824314160918</v>
       </c>
       <c r="D49">
-        <v>0.01323722138813902</v>
+        <v>0.01425421528048662</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -2249,19 +2276,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>0.03947854294123604</v>
+        <v>0.03813613583387434</v>
       </c>
       <c r="D50">
-        <v>0.01326969864331059</v>
+        <v>0.01473117510166498</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -2272,19 +2299,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>0.03971020244854913</v>
+        <v>0.03823996128360668</v>
       </c>
       <c r="D51">
-        <v>0.01324114709054034</v>
+        <v>0.01455926483890786</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -2295,19 +2322,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0.03998273237046734</v>
+        <v>0.03867664506873122</v>
       </c>
       <c r="D52">
-        <v>0.0135070686709602</v>
+        <v>0.01481508078859657</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -2318,19 +2345,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0.04013590387094912</v>
+        <v>0.03873907794924156</v>
       </c>
       <c r="D53">
-        <v>0.01337094881906855</v>
+        <v>0.01467307025070269</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -2341,13 +2368,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>0.04015908878808583</v>
+        <v>0.039375755234828</v>
       </c>
       <c r="D54">
-        <v>0.01382137160427694</v>
+        <v>0.01323722138813902</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -2364,16 +2391,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>0.0402338973676437</v>
+        <v>0.03947854294123604</v>
       </c>
       <c r="D55">
-        <v>0.01380918828330711</v>
+        <v>0.01326969864331059</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>17</v>
@@ -2387,19 +2414,19 @@
         <v>54</v>
       </c>
       <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0.03971020244854913</v>
+      </c>
+      <c r="D56">
+        <v>0.01324114709054034</v>
+      </c>
+      <c r="E56">
         <v>8</v>
       </c>
-      <c r="C56">
-        <v>0.04087909250247558</v>
-      </c>
-      <c r="D56">
-        <v>0.01432645104377327</v>
-      </c>
-      <c r="E56">
-        <v>15</v>
-      </c>
       <c r="F56">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2410,19 +2437,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>0.04100765600056627</v>
+        <v>0.03998273237046734</v>
       </c>
       <c r="D57">
-        <v>0.01421832131562976</v>
+        <v>0.0135070686709602</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -2433,19 +2460,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.04116006502223266</v>
+        <v>0.04013590387094912</v>
       </c>
       <c r="D58">
-        <v>0.01426858268579874</v>
+        <v>0.01337094881906855</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2456,19 +2483,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>0.04139407823136446</v>
+        <v>0.04015908878808583</v>
       </c>
       <c r="D59">
-        <v>0.0144165189821433</v>
+        <v>0.01382137160427694</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2479,22 +2506,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>0.04155797896306222</v>
+        <v>0.0402338973676437</v>
       </c>
       <c r="D60">
-        <v>0.01493214476678237</v>
+        <v>0.01380918828330711</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2502,22 +2529,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>0.04513932551764377</v>
+        <v>0.04463860959814739</v>
       </c>
       <c r="D61">
-        <v>0.001187522050775079</v>
+        <v>0.0007752101279205481</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2525,22 +2552,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>0.04557763434024689</v>
+        <v>0.04506529758203414</v>
       </c>
       <c r="D62">
-        <v>0.001174214052473854</v>
+        <v>0.0007559564474742088</v>
       </c>
       <c r="E62">
         <v>6</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2548,22 +2575,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>0.04584298977005152</v>
+        <v>0.04567925953809282</v>
       </c>
       <c r="D63">
-        <v>0.001236428498830822</v>
+        <v>0.0007702853248745813</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2571,22 +2598,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>0.04635602494674846</v>
+        <v>0.04587209949396588</v>
       </c>
       <c r="D64">
-        <v>0.00117570986297199</v>
+        <v>0.0007853858156363326</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2594,22 +2621,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>0.04656532110552897</v>
+        <v>0.0460068178532068</v>
       </c>
       <c r="D65">
-        <v>0.001249723641961144</v>
+        <v>0.000779537558813379</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2617,22 +2644,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.0466744712482626</v>
+        <v>0.04631203726702482</v>
       </c>
       <c r="D66">
-        <v>0.001198277321035717</v>
+        <v>0.000924350866332243</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2640,22 +2667,22 @@
         <v>65</v>
       </c>
       <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>0.04645784354976006</v>
+      </c>
+      <c r="D67">
+        <v>0.0001768452514456056</v>
+      </c>
+      <c r="E67">
         <v>2</v>
       </c>
-      <c r="C67">
-        <v>0.0474330069297068</v>
-      </c>
-      <c r="D67">
-        <v>0.001636004829545739</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
       <c r="F67">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2666,19 +2693,19 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>0.04953781641173886</v>
+        <v>0.04688710413955708</v>
       </c>
       <c r="D68">
-        <v>0.0004375597946855617</v>
+        <v>9.74374625358896E-05</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2686,22 +2713,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0.05075224987771276</v>
+        <v>0.04722317965396476</v>
       </c>
       <c r="D69">
-        <v>0.0002243367785181248</v>
+        <v>2.955301900777515E-05</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2709,22 +2736,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>0.05187571629725516</v>
+        <v>0.04770441568771103</v>
       </c>
       <c r="D70">
-        <v>0.0002693474834518347</v>
+        <v>0.0001231695251081043</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2732,22 +2759,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>0.05255298480073851</v>
+        <v>0.04795627900498468</v>
       </c>
       <c r="D71">
-        <v>0.0001557830700036623</v>
+        <v>2.624096649899371E-05</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2755,22 +2782,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>0.05283712525366294</v>
+        <v>0.04805551384953871</v>
       </c>
       <c r="D72">
-        <v>0.0002687978118191704</v>
+        <v>2.001691822045688E-05</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2778,22 +2805,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>0.05295500276056771</v>
+        <v>0.0493707698444609</v>
       </c>
       <c r="D73">
-        <v>0.0002621843309186324</v>
+        <v>0.0007678293561868559</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2801,22 +2828,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.05328409421692645</v>
+        <v>0.04953781641173886</v>
       </c>
       <c r="D74">
-        <v>0.0002461075340937899</v>
+        <v>0.0004375597946855617</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2824,22 +2851,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.05342787284781719</v>
+        <v>0.05075224987771276</v>
       </c>
       <c r="D75">
-        <v>0.0003603216842914005</v>
+        <v>0.0002243367785181248</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F75">
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2847,22 +2874,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>0.05357864179830769</v>
+        <v>0.05187571629725516</v>
       </c>
       <c r="D76">
-        <v>0.0001831699284002593</v>
+        <v>0.0002693474834518347</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2870,22 +2897,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>0.05360730661337194</v>
+        <v>0.05255298480073851</v>
       </c>
       <c r="D77">
-        <v>0.0002680003885200865</v>
+        <v>0.0001557830700036623</v>
       </c>
       <c r="E77">
         <v>7</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2893,22 +2920,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>0.05394395989471647</v>
+        <v>0.05283712525366294</v>
       </c>
       <c r="D78">
-        <v>0.000252312600071334</v>
+        <v>0.0002687978118191704</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2916,22 +2943,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>0.05406905349586272</v>
+        <v>0.05295500276056771</v>
       </c>
       <c r="D79">
-        <v>0.0004392686653542362</v>
+        <v>0.0002621843309186324</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2939,22 +2966,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>0.05414471138430795</v>
+        <v>0.05328409421692645</v>
       </c>
       <c r="D80">
-        <v>0.0002197739408490048</v>
+        <v>0.0002461075340937899</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2962,22 +2989,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>0.05467770657025153</v>
+        <v>0.05342787284781719</v>
       </c>
       <c r="D81">
-        <v>0.0002829128290263383</v>
+        <v>0.0003603216842914005</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2985,22 +3012,22 @@
         <v>80</v>
       </c>
       <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.05347244057143802</v>
+      </c>
+      <c r="D82">
+        <v>0.0001551616363398668</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
         <v>2</v>
       </c>
-      <c r="C82">
-        <v>0.05488870018159925</v>
-      </c>
-      <c r="D82">
-        <v>0.0007380054907098035</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>22</v>
-      </c>
       <c r="G82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3008,22 +3035,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>0.06015351492853059</v>
+        <v>0.05357864179830769</v>
       </c>
       <c r="D83">
-        <v>0.003027499637370369</v>
+        <v>0.0001831699284002593</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3031,22 +3058,22 @@
         <v>82</v>
       </c>
       <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>0.05360730661337194</v>
+      </c>
+      <c r="D84">
+        <v>0.0002680003885200865</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84">
         <v>4</v>
       </c>
-      <c r="C84">
-        <v>0.0607928810706129</v>
-      </c>
-      <c r="D84">
-        <v>0.00304924018895636</v>
-      </c>
-      <c r="E84">
-        <v>21</v>
-      </c>
-      <c r="F84">
-        <v>8</v>
-      </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3054,22 +3081,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>0.06118556136351851</v>
+        <v>0.05369114588709062</v>
       </c>
       <c r="D85">
-        <v>0.003188750949362663</v>
+        <v>4.934979947704967E-05</v>
       </c>
       <c r="E85">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3077,22 +3104,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.06142091633525409</v>
+        <v>0.05381795286816354</v>
       </c>
       <c r="D86">
-        <v>0.003203195215349652</v>
+        <v>9.192071860018434E-05</v>
       </c>
       <c r="E86">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3100,22 +3127,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C87">
-        <v>0.0619503831214947</v>
+        <v>0.05394395989471647</v>
       </c>
       <c r="D87">
-        <v>0.003422667501572781</v>
+        <v>0.000252312600071334</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3123,22 +3150,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.06259642053990874</v>
+        <v>0.05406905349586272</v>
       </c>
       <c r="D88">
-        <v>0.003491769691363537</v>
+        <v>0.0004392686653542362</v>
       </c>
       <c r="E88">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3146,22 +3173,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>0.06494124489389252</v>
+        <v>0.05412965212029373</v>
       </c>
       <c r="D89">
-        <v>0.003947832109625756</v>
+        <v>0.0002544464970348263</v>
       </c>
       <c r="E89">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3169,22 +3196,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0.08741563714710447</v>
+        <v>0.05414471138430795</v>
       </c>
       <c r="D90">
-        <v>0.00307998924522794</v>
+        <v>0.0002197739408490048</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3192,22 +3219,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>0.08932747913893002</v>
+        <v>0.0544486903434373</v>
       </c>
       <c r="D91">
-        <v>0.003172229240078539</v>
+        <v>6.238440394546709E-05</v>
       </c>
       <c r="E91">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3215,22 +3242,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>0.08958420393164683</v>
+        <v>0.05467770657025153</v>
       </c>
       <c r="D92">
-        <v>0.001092524852067747</v>
+        <v>0.0002829128290263383</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3238,22 +3265,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0.09008454165966606</v>
+        <v>0.05474469675073799</v>
       </c>
       <c r="D93">
-        <v>0.01195623441073502</v>
+        <v>0.0001807955734797748</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3261,22 +3288,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>0.09008977506629533</v>
+        <v>0.05488870018159925</v>
       </c>
       <c r="D94">
-        <v>0.002197450303329746</v>
+        <v>0.0007380054907098035</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3284,22 +3311,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>0.09055448938483249</v>
+        <v>0.06015351492853059</v>
       </c>
       <c r="D95">
-        <v>0.002408207496586324</v>
+        <v>0.003027499637370369</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3307,22 +3334,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>0.09130063836666685</v>
+        <v>0.0607928810706129</v>
       </c>
       <c r="D96">
-        <v>0.001115574827078541</v>
+        <v>0.00304924018895636</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3330,22 +3357,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.09187952461055823</v>
+        <v>0.06118556136351851</v>
       </c>
       <c r="D97">
-        <v>0.0006984831458123303</v>
+        <v>0.003188750949362663</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F97">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3353,22 +3380,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.09191136024777466</v>
+        <v>0.06142091633525409</v>
       </c>
       <c r="D98">
-        <v>0.001793474884098499</v>
+        <v>0.003203195215349652</v>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3376,22 +3403,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.09193964749672696</v>
+        <v>0.0619503831214947</v>
       </c>
       <c r="D99">
-        <v>0.0124417636004268</v>
+        <v>0.003422667501572781</v>
       </c>
       <c r="E99">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F99">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3399,22 +3426,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.09258113815998444</v>
+        <v>0.06259642053990874</v>
       </c>
       <c r="D100">
-        <v>0.001293446723478287</v>
+        <v>0.003491769691363537</v>
       </c>
       <c r="E100">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3422,22 +3449,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.09324859932127273</v>
+        <v>0.06494124489389252</v>
       </c>
       <c r="D101">
-        <v>0.01291720327623801</v>
+        <v>0.003947832109625756</v>
       </c>
       <c r="E101">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F101">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3445,22 +3472,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.09346956797871625</v>
+        <v>0.08741563714710447</v>
       </c>
       <c r="D102">
-        <v>0.0007421580066142732</v>
+        <v>0.00307998924522794</v>
       </c>
       <c r="E102">
         <v>8</v>
       </c>
       <c r="F102">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3468,22 +3495,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>0.09411593190278227</v>
+        <v>0.08932747913893002</v>
       </c>
       <c r="D103">
-        <v>0.001651388094516608</v>
+        <v>0.003172229240078539</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3491,22 +3518,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>0.09453222863444437</v>
+        <v>0.08958420393164683</v>
       </c>
       <c r="D104">
-        <v>0.0133951880735311</v>
+        <v>0.001092524852067747</v>
       </c>
       <c r="E104">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3514,22 +3541,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>0.09512531804647099</v>
+        <v>0.09008454165966606</v>
       </c>
       <c r="D105">
-        <v>0.01360075916566268</v>
+        <v>0.01195623441073502</v>
       </c>
       <c r="E105">
         <v>40</v>
       </c>
       <c r="F105">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3537,22 +3564,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C106">
-        <v>0.09633256553432354</v>
+        <v>0.09008977506629533</v>
       </c>
       <c r="D106">
-        <v>0.01409546944106763</v>
+        <v>0.002197450303329746</v>
       </c>
       <c r="E106">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3560,22 +3587,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C107">
-        <v>0.09644717224391226</v>
+        <v>0.09055448938483249</v>
       </c>
       <c r="D107">
-        <v>0.001135186252015681</v>
+        <v>0.002408207496586324</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3583,22 +3610,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>0.09702111974235236</v>
+        <v>0.09130063836666685</v>
       </c>
       <c r="D108">
-        <v>0.01438225692188518</v>
+        <v>0.001115574827078541</v>
       </c>
       <c r="E108">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3606,22 +3633,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.1003361286747743</v>
+        <v>0.09187952461055823</v>
       </c>
       <c r="D109">
-        <v>0.001473649000480345</v>
+        <v>0.0006984831458123303</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3629,22 +3656,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.1063973608153731</v>
+        <v>0.09191136024777466</v>
       </c>
       <c r="D110">
-        <v>0.002285435092437396</v>
+        <v>0.001793474884098499</v>
       </c>
       <c r="E110">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F110">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3652,22 +3679,22 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C111">
-        <v>0.1112371132621206</v>
+        <v>0.09193964749672696</v>
       </c>
       <c r="D111">
-        <v>0.001723647223295128</v>
+        <v>0.0124417636004268</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F111">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3675,22 +3702,22 @@
         <v>110</v>
       </c>
       <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.09258113815998444</v>
+      </c>
+      <c r="D112">
+        <v>0.001293446723478287</v>
+      </c>
+      <c r="E112">
         <v>12</v>
       </c>
-      <c r="C112">
-        <v>0.1119010305991214</v>
-      </c>
-      <c r="D112">
-        <v>0.002229670112142194</v>
-      </c>
-      <c r="E112">
-        <v>10</v>
-      </c>
       <c r="F112">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3698,22 +3725,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>0.1125974184252276</v>
+        <v>0.09324859932127273</v>
       </c>
       <c r="D113">
-        <v>0.0002113060170476487</v>
+        <v>0.01291720327623801</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3724,19 +3751,19 @@
         <v>6</v>
       </c>
       <c r="C114">
-        <v>0.1130653034121379</v>
+        <v>0.09346956797871625</v>
       </c>
       <c r="D114">
-        <v>0.000447188208309686</v>
+        <v>0.0007421580066142732</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3744,22 +3771,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0.1131990848876678</v>
+        <v>0.09411593190278227</v>
       </c>
       <c r="D115">
-        <v>0.0005768607859967266</v>
+        <v>0.001651388094516608</v>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F115">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3767,22 +3794,22 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>0.1136231980026174</v>
+        <v>0.09453222863444437</v>
       </c>
       <c r="D116">
-        <v>0.0003708616005231594</v>
+        <v>0.0133951880735311</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3790,22 +3817,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>0.1147756048751873</v>
+        <v>0.09512531804647099</v>
       </c>
       <c r="D117">
-        <v>0.0002721180547965003</v>
+        <v>0.01360075916566268</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3813,22 +3840,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>0.1148723973788088</v>
+        <v>0.09633256553432354</v>
       </c>
       <c r="D118">
-        <v>9.700852828895721E-05</v>
+        <v>0.01409546944106763</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3836,22 +3863,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>0.1150511016366459</v>
+        <v>0.09644717224391226</v>
       </c>
       <c r="D119">
-        <v>0.001948606860025186</v>
+        <v>0.001135186252015681</v>
       </c>
       <c r="E119">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F119">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3859,22 +3886,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>0.1151689586097332</v>
+        <v>0.09702111974235236</v>
       </c>
       <c r="D120">
-        <v>0.0001529398744540375</v>
+        <v>0.01438225692188518</v>
       </c>
       <c r="E120">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3882,22 +3909,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.1156478940850047</v>
+        <v>0.1003361286747743</v>
       </c>
       <c r="D121">
-        <v>0.0006375604634669107</v>
+        <v>0.001473649000480345</v>
       </c>
       <c r="E121">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3905,22 +3932,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>0.1158646949770853</v>
+        <v>0.1063973608153731</v>
       </c>
       <c r="D122">
-        <v>0.003156264825982654</v>
+        <v>0.002285435092437396</v>
       </c>
       <c r="E122">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3928,22 +3955,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C123">
-        <v>0.1163292063499252</v>
+        <v>0.1112371132621206</v>
       </c>
       <c r="D123">
-        <v>0.001038628646163026</v>
+        <v>0.001723647223295128</v>
       </c>
       <c r="E123">
         <v>7</v>
       </c>
       <c r="F123">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3951,22 +3978,22 @@
         <v>122</v>
       </c>
       <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>0.1119010305991214</v>
+      </c>
+      <c r="D124">
+        <v>0.002229670112142194</v>
+      </c>
+      <c r="E124">
         <v>10</v>
       </c>
-      <c r="C124">
-        <v>0.1173724377055687</v>
-      </c>
-      <c r="D124">
-        <v>0.00144339314333321</v>
-      </c>
-      <c r="E124">
-        <v>14</v>
-      </c>
       <c r="F124">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G124" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3974,22 +4001,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>0.1180341836930632</v>
+        <v>0.1125974184252276</v>
       </c>
       <c r="D125">
-        <v>0.0009845558812049309</v>
+        <v>0.0002113060170476487</v>
       </c>
       <c r="E125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G125" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3997,22 +4024,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>0.1193649140143615</v>
+        <v>0.1130653034121379</v>
       </c>
       <c r="D126">
-        <v>0.0009610470466512589</v>
+        <v>0.000447188208309686</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F126">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G126" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4020,22 +4047,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>0.1201289509463142</v>
+        <v>0.1131990848876678</v>
       </c>
       <c r="D127">
-        <v>0.001219331184923659</v>
+        <v>0.0005768607859967266</v>
       </c>
       <c r="E127">
         <v>8</v>
       </c>
       <c r="F127">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4043,22 +4070,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>0.1211645889882844</v>
+        <v>0.1136231980026174</v>
       </c>
       <c r="D128">
-        <v>0.0007145148955964969</v>
+        <v>0.0003708616005231594</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F128">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G128" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4066,22 +4093,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C129">
-        <v>0.1217901319647683</v>
+        <v>0.1147756048751873</v>
       </c>
       <c r="D129">
-        <v>0.00120859244740289</v>
+        <v>0.0002721180547965003</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4089,22 +4116,22 @@
         <v>128</v>
       </c>
       <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>0.1148723973788088</v>
+      </c>
+      <c r="D130">
+        <v>9.700852828895721E-05</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>0.1226563389639036</v>
-      </c>
-      <c r="D130">
-        <v>0.003591917091676315</v>
-      </c>
-      <c r="E130">
-        <v>8</v>
-      </c>
-      <c r="F130">
-        <v>25</v>
-      </c>
       <c r="G130" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4112,22 +4139,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C131">
-        <v>0.1227219266488615</v>
+        <v>0.1150511016366459</v>
       </c>
       <c r="D131">
-        <v>0.001410620590291796</v>
+        <v>0.001948606860025186</v>
       </c>
       <c r="E131">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F131">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G131" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4135,22 +4162,22 @@
         <v>130</v>
       </c>
       <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>0.1151689586097332</v>
+      </c>
+      <c r="D132">
+        <v>0.0001529398744540375</v>
+      </c>
+      <c r="E132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>0.1236659118055674</v>
-      </c>
-      <c r="D132">
-        <v>0.003614340583182385</v>
-      </c>
-      <c r="E132">
-        <v>10</v>
-      </c>
       <c r="F132">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G132" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4158,22 +4185,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C133">
-        <v>0.1249908758046277</v>
+        <v>0.1156478940850047</v>
       </c>
       <c r="D133">
-        <v>0.003668925723967605</v>
+        <v>0.0006375604634669107</v>
       </c>
       <c r="E133">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F133">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G133" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4181,22 +4208,22 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C134">
-        <v>0.1249943759624367</v>
+        <v>0.1158646949770853</v>
       </c>
       <c r="D134">
-        <v>0.006262250956500791</v>
+        <v>0.003156264825982654</v>
       </c>
       <c r="E134">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4204,22 +4231,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C135">
-        <v>0.1252341429957625</v>
+        <v>0.1163292063499252</v>
       </c>
       <c r="D135">
-        <v>0.003206059841360337</v>
+        <v>0.001038628646163026</v>
       </c>
       <c r="E135">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F135">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4227,22 +4254,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136">
-        <v>0.1256679397021836</v>
+        <v>0.1173724377055687</v>
       </c>
       <c r="D136">
-        <v>0.003864407782350145</v>
+        <v>0.00144339314333321</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F136">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G136" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4250,22 +4277,22 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C137">
-        <v>0.1260845210314022</v>
+        <v>0.1180341836930632</v>
       </c>
       <c r="D137">
-        <v>0.003905643844434178</v>
+        <v>0.0009845558812049309</v>
       </c>
       <c r="E137">
         <v>8</v>
       </c>
       <c r="F137">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4273,22 +4300,22 @@
         <v>136</v>
       </c>
       <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.1193649140143615</v>
+      </c>
+      <c r="D138">
+        <v>0.0009610470466512589</v>
+      </c>
+      <c r="E138">
         <v>8</v>
       </c>
-      <c r="C138">
-        <v>0.1261478367706711</v>
-      </c>
-      <c r="D138">
-        <v>0.006480703513510697</v>
-      </c>
-      <c r="E138">
-        <v>24</v>
-      </c>
       <c r="F138">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4296,22 +4323,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C139">
-        <v>0.1262574331063575</v>
+        <v>0.1201289509463142</v>
       </c>
       <c r="D139">
-        <v>0.0008472506248913955</v>
+        <v>0.001219331184923659</v>
       </c>
       <c r="E139">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F139">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G139" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4319,22 +4346,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140">
-        <v>0.1265202507764234</v>
+        <v>0.1211645889882844</v>
       </c>
       <c r="D140">
-        <v>0.006559979858141653</v>
+        <v>0.0007145148955964969</v>
       </c>
       <c r="E140">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F140">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4342,22 +4369,22 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.1269619593991031</v>
+        <v>0.1217901319647683</v>
       </c>
       <c r="D141">
-        <v>0.00406231089589401</v>
+        <v>0.00120859244740289</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G141" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4365,22 +4392,22 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.127183200172686</v>
+        <v>0.1226563389639036</v>
       </c>
       <c r="D142">
-        <v>0.006523700820624237</v>
+        <v>0.003591917091676315</v>
       </c>
       <c r="E142">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F142">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G142" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4388,22 +4415,22 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.1275877547988019</v>
+        <v>0.1227219266488615</v>
       </c>
       <c r="D143">
-        <v>0.007032071287910044</v>
+        <v>0.001410620590291796</v>
       </c>
       <c r="E143">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4411,22 +4438,22 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>0.1285701853410304</v>
+        <v>0.1236659118055674</v>
       </c>
       <c r="D144">
-        <v>0.007152169604928035</v>
+        <v>0.003614340583182385</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F144">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G144" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4434,22 +4461,22 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>0.1306577882688228</v>
+        <v>0.1249908758046277</v>
       </c>
       <c r="D145">
-        <v>0.007384191936413875</v>
+        <v>0.003668925723967605</v>
       </c>
       <c r="E145">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F145">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G145" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4457,22 +4484,22 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>0.1308870914038107</v>
+        <v>0.1249943759624367</v>
       </c>
       <c r="D146">
-        <v>0.001338401306180988</v>
+        <v>0.006262250956500791</v>
       </c>
       <c r="E146">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F146">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G146" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4480,22 +4507,22 @@
         <v>145</v>
       </c>
       <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>0.1252341429957625</v>
+      </c>
+      <c r="D147">
+        <v>0.003206059841360337</v>
+      </c>
+      <c r="E147">
         <v>14</v>
       </c>
-      <c r="C147">
-        <v>0.1341524093317911</v>
-      </c>
-      <c r="D147">
-        <v>0.007956530452761516</v>
-      </c>
-      <c r="E147">
-        <v>18</v>
-      </c>
       <c r="F147">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4503,22 +4530,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.1432980867314463</v>
+        <v>0.1256679397021836</v>
       </c>
       <c r="D148">
-        <v>0.0244620933584411</v>
+        <v>0.003864407782350145</v>
       </c>
       <c r="E148">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G148" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4526,22 +4553,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>0.1474918594393092</v>
+        <v>0.1260845210314022</v>
       </c>
       <c r="D149">
-        <v>0.02621020026329882</v>
+        <v>0.003905643844434178</v>
       </c>
       <c r="E149">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G149" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4549,22 +4576,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C150">
-        <v>0.149955687320825</v>
+        <v>0.1261478367706711</v>
       </c>
       <c r="D150">
-        <v>0.02818162136524565</v>
+        <v>0.006480703513510697</v>
       </c>
       <c r="E150">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G150" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4572,22 +4599,22 @@
         <v>149</v>
       </c>
       <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0.1262574331063575</v>
+      </c>
+      <c r="D151">
+        <v>0.0008472506248913955</v>
+      </c>
+      <c r="E151">
         <v>11</v>
-      </c>
-      <c r="C151">
-        <v>0.153778608814952</v>
-      </c>
-      <c r="D151">
-        <v>0.0304341777303655</v>
-      </c>
-      <c r="E151">
-        <v>20</v>
       </c>
       <c r="F151">
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4595,22 +4622,22 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>0.1586298791011223</v>
+        <v>0.1265202507764234</v>
       </c>
       <c r="D152">
-        <v>0.03301608967742592</v>
+        <v>0.006559979858141653</v>
       </c>
       <c r="E152">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G152" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4618,22 +4645,22 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C153">
-        <v>0.159972250341915</v>
+        <v>0.1269619593991031</v>
       </c>
       <c r="D153">
-        <v>0.002851999114081611</v>
+        <v>0.00406231089589401</v>
       </c>
       <c r="E153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F153">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G153" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4641,22 +4668,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>0.1645663975626196</v>
+        <v>0.127183200172686</v>
       </c>
       <c r="D154">
-        <v>0.03983442898073363</v>
+        <v>0.006523700820624237</v>
       </c>
       <c r="E154">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F154">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4664,22 +4691,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155">
-        <v>0.1647997312583445</v>
+        <v>0.1275877547988019</v>
       </c>
       <c r="D155">
-        <v>0.001233373889937689</v>
+        <v>0.007032071287910044</v>
       </c>
       <c r="E155">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F155">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4687,22 +4714,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C156">
-        <v>0.1678298666222684</v>
+        <v>0.1285701853410304</v>
       </c>
       <c r="D156">
-        <v>0.04034028650963296</v>
+        <v>0.007152169604928035</v>
       </c>
       <c r="E156">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4710,22 +4737,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C157">
-        <v>0.1695801084875108</v>
+        <v>0.1306577882688228</v>
       </c>
       <c r="D157">
-        <v>0.001798932978641081</v>
+        <v>0.007384191936413875</v>
       </c>
       <c r="E157">
+        <v>21</v>
+      </c>
+      <c r="F157">
         <v>8</v>
       </c>
-      <c r="F157">
-        <v>13</v>
-      </c>
       <c r="G157" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4733,22 +4760,22 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>0.1702612908190806</v>
+        <v>0.1308870914038107</v>
       </c>
       <c r="D158">
-        <v>0.03951830168334317</v>
+        <v>0.001338401306180988</v>
       </c>
       <c r="E158">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F158">
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4756,22 +4783,22 @@
         <v>157</v>
       </c>
       <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>0.1341524093317911</v>
+      </c>
+      <c r="D159">
+        <v>0.007956530452761516</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159">
         <v>8</v>
       </c>
-      <c r="C159">
-        <v>0.1741208872637858</v>
-      </c>
-      <c r="D159">
-        <v>0.00169009973470052</v>
-      </c>
-      <c r="E159">
-        <v>8</v>
-      </c>
-      <c r="F159">
-        <v>13</v>
-      </c>
       <c r="G159" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4779,22 +4806,22 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C160">
-        <v>0.1791983458170174</v>
+        <v>0.1432980867314463</v>
       </c>
       <c r="D160">
-        <v>0.0451719412424862</v>
+        <v>0.0244620933584411</v>
       </c>
       <c r="E160">
         <v>20</v>
       </c>
       <c r="F160">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4802,22 +4829,22 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C161">
-        <v>0.1808151699589275</v>
+        <v>0.1474918594393092</v>
       </c>
       <c r="D161">
-        <v>0.006875871153287278</v>
+        <v>0.02621020026329882</v>
       </c>
       <c r="E161">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4825,22 +4852,22 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C162">
-        <v>0.1818863332992114</v>
+        <v>0.149955687320825</v>
       </c>
       <c r="D162">
-        <v>0.002442441383401085</v>
+        <v>0.02818162136524565</v>
       </c>
       <c r="E162">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F162">
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4848,22 +4875,22 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.1852125836331775</v>
+        <v>0.153778608814952</v>
       </c>
       <c r="D163">
-        <v>0.005689968931585719</v>
+        <v>0.0304341777303655</v>
       </c>
       <c r="E163">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F163">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4871,22 +4898,22 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>0.1883023848525239</v>
+        <v>0.1586298791011223</v>
       </c>
       <c r="D164">
-        <v>0.005628697032753552</v>
+        <v>0.03301608967742592</v>
       </c>
       <c r="E164">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4894,22 +4921,22 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C165">
-        <v>0.1910241173180532</v>
+        <v>0.159972250341915</v>
       </c>
       <c r="D165">
-        <v>0.001936755053811476</v>
+        <v>0.002851999114081611</v>
       </c>
       <c r="E165">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F165">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G165" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4917,22 +4944,22 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>0.192883704152058</v>
+        <v>0.1645663975626196</v>
       </c>
       <c r="D166">
-        <v>0.1988654615436192</v>
+        <v>0.03983442898073363</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F166">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4940,22 +4967,22 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C167">
-        <v>0.1940928277637726</v>
+        <v>0.1647997312583445</v>
       </c>
       <c r="D167">
-        <v>0.004902293712425997</v>
+        <v>0.001233373889937689</v>
       </c>
       <c r="E167">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G167" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4966,19 +4993,19 @@
         <v>3</v>
       </c>
       <c r="C168">
-        <v>0.200613186514965</v>
+        <v>0.1678298666222684</v>
       </c>
       <c r="D168">
-        <v>0.003906437780680041</v>
+        <v>0.04034028650963296</v>
       </c>
       <c r="E168">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F168">
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4989,19 +5016,19 @@
         <v>9</v>
       </c>
       <c r="C169">
-        <v>0.2017705565278532</v>
+        <v>0.1695801084875108</v>
       </c>
       <c r="D169">
-        <v>0.004803304880173069</v>
+        <v>0.001798932978641081</v>
       </c>
       <c r="E169">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G169" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5009,22 +5036,22 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>0.2124688482841027</v>
+        <v>0.1702612908190806</v>
       </c>
       <c r="D170">
-        <v>0.07897021277968126</v>
+        <v>0.03951830168334317</v>
       </c>
       <c r="E170">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F170">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5035,19 +5062,19 @@
         <v>8</v>
       </c>
       <c r="C171">
-        <v>0.2131755854783532</v>
+        <v>0.1741208872637858</v>
       </c>
       <c r="D171">
-        <v>0.07884762918799426</v>
+        <v>0.00169009973470052</v>
       </c>
       <c r="E171">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F171">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G171" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5058,19 +5085,19 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>0.2136811166708237</v>
+        <v>0.1791983458170174</v>
       </c>
       <c r="D172">
-        <v>0.07830125238679365</v>
+        <v>0.0451719412424862</v>
       </c>
       <c r="E172">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F172">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5078,22 +5105,22 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C173">
-        <v>0.214210374694785</v>
+        <v>0.1808151699589275</v>
       </c>
       <c r="D173">
-        <v>0.08238272164471817</v>
+        <v>0.006875871153287278</v>
       </c>
       <c r="E173">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F173">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5101,22 +5128,22 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>0.2144638808304339</v>
+        <v>0.1818863332992114</v>
       </c>
       <c r="D174">
-        <v>0.005695992061678142</v>
+        <v>0.002442441383401085</v>
       </c>
       <c r="E174">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F174">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G174" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5124,22 +5151,22 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C175">
-        <v>0.2146873984559954</v>
+        <v>0.1852125836331775</v>
       </c>
       <c r="D175">
-        <v>0.08051169671211705</v>
+        <v>0.005689968931585719</v>
       </c>
       <c r="E175">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F175">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5147,22 +5174,22 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>0.2151722025870087</v>
+        <v>0.1883023848525239</v>
       </c>
       <c r="D176">
-        <v>0.07845257084700456</v>
+        <v>0.005628697032753552</v>
       </c>
       <c r="E176">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F176">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5170,22 +5197,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C177">
-        <v>0.2161527169041622</v>
+        <v>0.1910241173180532</v>
       </c>
       <c r="D177">
-        <v>0.08151065810849586</v>
+        <v>0.001936755053811476</v>
       </c>
       <c r="E177">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F177">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G177" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5193,22 +5220,22 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C178">
-        <v>0.2176455011097002</v>
+        <v>0.1940928277637726</v>
       </c>
       <c r="D178">
-        <v>0.08480519931182678</v>
+        <v>0.004902293712425997</v>
       </c>
       <c r="E178">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F178">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5216,22 +5243,22 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>0.2335250135672382</v>
+        <v>0.200613186514965</v>
       </c>
       <c r="D179">
-        <v>0.005913740982556632</v>
+        <v>0.003906437780680041</v>
       </c>
       <c r="E179">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G179" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5239,22 +5266,22 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C180">
-        <v>0.2670009402336815</v>
+        <v>0.2017705565278532</v>
       </c>
       <c r="D180">
-        <v>0.002803658650641328</v>
+        <v>0.004803304880173069</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F180">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5262,22 +5289,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C181">
-        <v>0.2726181013770946</v>
+        <v>0.2144638808304339</v>
       </c>
       <c r="D181">
-        <v>0.004709377695885404</v>
+        <v>0.005695992061678142</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F181">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5285,22 +5312,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C182">
-        <v>0.2742093579915102</v>
+        <v>0.2335250135672382</v>
       </c>
       <c r="D182">
-        <v>0.002484504765842245</v>
+        <v>0.005913740982556632</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F182">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5308,22 +5335,22 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>0.2785352167984388</v>
+        <v>0.2342464881415861</v>
       </c>
       <c r="D183">
-        <v>0.001027571380546675</v>
+        <v>0.07398356923655258</v>
       </c>
       <c r="E183">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F183">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G183" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5331,22 +5358,22 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184">
-        <v>0.2820698438532309</v>
+        <v>0.2354415141169881</v>
       </c>
       <c r="D184">
-        <v>0.002534615677952631</v>
+        <v>0.07416973429204751</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F184">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G184" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5354,22 +5381,22 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185">
-        <v>0.2833580179063008</v>
+        <v>0.2364151897024137</v>
       </c>
       <c r="D185">
-        <v>0.002898107089669436</v>
+        <v>0.07391777928820258</v>
       </c>
       <c r="E185">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F185">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G185" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5377,22 +5404,22 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C186">
-        <v>0.284452958782165</v>
+        <v>0.2373754098806763</v>
       </c>
       <c r="D186">
-        <v>0.001323322415281458</v>
+        <v>0.0737425730311513</v>
       </c>
       <c r="E186">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F186">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G186" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5400,22 +5427,22 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>0.2852572630067072</v>
+        <v>0.2375751595313553</v>
       </c>
       <c r="D187">
-        <v>0.0005013548153880719</v>
+        <v>0.07458637324370389</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F187">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G187" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5423,22 +5450,22 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C188">
-        <v>0.286773635521598</v>
+        <v>0.2404960749074485</v>
       </c>
       <c r="D188">
-        <v>0.0003740266220112631</v>
+        <v>0.07352135923030112</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F188">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G188" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5446,22 +5473,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C189">
-        <v>0.2922444192646869</v>
+        <v>0.2436594267050604</v>
       </c>
       <c r="D189">
-        <v>0.001946071571751939</v>
+        <v>0.07535160060201193</v>
       </c>
       <c r="E189">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F189">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G189" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5472,19 +5499,19 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>0.2935777955606507</v>
+        <v>0.2452536215698021</v>
       </c>
       <c r="D190">
-        <v>0.002717707463873651</v>
+        <v>0.07654810124530814</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F190">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G190" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5492,22 +5519,22 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>0.2950251776615252</v>
+        <v>0.2670009402336815</v>
       </c>
       <c r="D191">
-        <v>0.005190915122467269</v>
+        <v>0.002803658650641328</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F191">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5515,22 +5542,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C192">
-        <v>0.3014251119639503</v>
+        <v>0.2726181013770946</v>
       </c>
       <c r="D192">
-        <v>0.002852066525935583</v>
+        <v>0.004709377695885404</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F192">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G192" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5538,22 +5565,22 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C193">
-        <v>0.3031747015379926</v>
+        <v>0.2820698438532309</v>
       </c>
       <c r="D193">
-        <v>0.001002965359442552</v>
+        <v>0.002534615677952631</v>
       </c>
       <c r="E193">
         <v>2</v>
       </c>
       <c r="F193">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G193" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5561,22 +5588,22 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C194">
-        <v>0.3057150942309647</v>
+        <v>0.2852572630067072</v>
       </c>
       <c r="D194">
-        <v>0.001954092162420229</v>
+        <v>0.0005013548153880719</v>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G194" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5584,22 +5611,22 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C195">
-        <v>0.3107064788723951</v>
+        <v>0.286773635521598</v>
       </c>
       <c r="D195">
-        <v>4.815317811707689E-05</v>
+        <v>0.0003740266220112631</v>
       </c>
       <c r="E195">
         <v>2</v>
       </c>
       <c r="F195">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G195" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5607,22 +5634,22 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C196">
-        <v>0.3199804324404124</v>
+        <v>0.2935777955606507</v>
       </c>
       <c r="D196">
-        <v>0.01805032916102249</v>
+        <v>0.002717707463873651</v>
       </c>
       <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
         <v>24</v>
       </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
       <c r="G196" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5630,22 +5657,22 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C197">
-        <v>0.322111908531024</v>
+        <v>0.3031747015379926</v>
       </c>
       <c r="D197">
-        <v>0.01453531079612563</v>
+        <v>0.001002965359442552</v>
       </c>
       <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
         <v>24</v>
       </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
       <c r="G197" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5653,22 +5680,22 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C198">
-        <v>0.3241088513916759</v>
+        <v>0.3128030880941868</v>
       </c>
       <c r="D198">
-        <v>0.02629184497757865</v>
+        <v>0.003631593321255613</v>
       </c>
       <c r="E198">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="F198">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G198" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5676,22 +5703,22 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>0.3243895492548768</v>
+        <v>0.3199804324404124</v>
       </c>
       <c r="D199">
-        <v>0.01554987700902913</v>
+        <v>0.01805032916102249</v>
       </c>
       <c r="E199">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5699,22 +5726,22 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C200">
-        <v>0.3266863298058949</v>
+        <v>0.322111908531024</v>
       </c>
       <c r="D200">
-        <v>0.01340456794021691</v>
+        <v>0.01453531079612563</v>
       </c>
       <c r="E200">
         <v>24</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5722,22 +5749,22 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C201">
-        <v>0.3268577595747851</v>
+        <v>0.3241088513916759</v>
       </c>
       <c r="D201">
-        <v>0.0271314901047055</v>
+        <v>0.02629184497757865</v>
       </c>
       <c r="E201">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F201">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5745,22 +5772,22 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C202">
-        <v>0.3283835080844766</v>
+        <v>0.3243895492548768</v>
       </c>
       <c r="D202">
-        <v>0.02589930184345553</v>
+        <v>0.01554987700902913</v>
       </c>
       <c r="E202">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F202">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5768,22 +5795,22 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203">
-        <v>0.3292586928487845</v>
+        <v>0.3266863298058949</v>
       </c>
       <c r="D203">
-        <v>0.01414576488586381</v>
+        <v>0.01340456794021691</v>
       </c>
       <c r="E203">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5791,22 +5818,22 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>0.3297109031509983</v>
+        <v>0.3268577595747851</v>
       </c>
       <c r="D204">
-        <v>0.01798115497052985</v>
+        <v>0.0271314901047055</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F204">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G204" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5814,22 +5841,22 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>0.33023849126282</v>
+        <v>0.3283835080844766</v>
       </c>
       <c r="D205">
-        <v>0.01419814290865973</v>
+        <v>0.02589930184345553</v>
       </c>
       <c r="E205">
         <v>60</v>
       </c>
       <c r="F205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5837,22 +5864,22 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C206">
-        <v>0.3307131202219913</v>
+        <v>0.3292586928487845</v>
       </c>
       <c r="D206">
-        <v>0.0173769736517306</v>
+        <v>0.01414576488586381</v>
       </c>
       <c r="E206">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5860,22 +5887,22 @@
         <v>205</v>
       </c>
       <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207">
+        <v>0.33023849126282</v>
+      </c>
+      <c r="D207">
+        <v>0.01419814290865973</v>
+      </c>
+      <c r="E207">
+        <v>60</v>
+      </c>
+      <c r="F207">
         <v>3</v>
       </c>
-      <c r="C207">
-        <v>0.3307727699189123</v>
-      </c>
-      <c r="D207">
-        <v>0.0268806689344617</v>
-      </c>
-      <c r="E207">
-        <v>30</v>
-      </c>
-      <c r="F207">
-        <v>26</v>
-      </c>
       <c r="G207" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5883,22 +5910,22 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C208">
-        <v>0.3326914082241708</v>
+        <v>0.3307131202219913</v>
       </c>
       <c r="D208">
-        <v>0.01248229298454495</v>
+        <v>0.0173769736517306</v>
       </c>
       <c r="E208">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F208">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5906,22 +5933,22 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C209">
-        <v>0.3331805666788898</v>
+        <v>0.3307727699189123</v>
       </c>
       <c r="D209">
-        <v>0.0172189845292531</v>
+        <v>0.0268806689344617</v>
       </c>
       <c r="E209">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F209">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G209" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5929,22 +5956,22 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C210">
-        <v>0.3348802457207022</v>
+        <v>0.3326914082241708</v>
       </c>
       <c r="D210">
-        <v>0.008462697504304976</v>
+        <v>0.01248229298454495</v>
       </c>
       <c r="E210">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F210">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G210" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5952,22 +5979,22 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C211">
-        <v>0.3351332911281419</v>
+        <v>0.3331805666788898</v>
       </c>
       <c r="D211">
-        <v>0.01734595926373559</v>
+        <v>0.0172189845292531</v>
       </c>
       <c r="E211">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5975,22 +6002,22 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C212">
-        <v>0.3356085730271909</v>
+        <v>0.3348802457207022</v>
       </c>
       <c r="D212">
-        <v>0.01647861041002751</v>
+        <v>0.008462697504304976</v>
       </c>
       <c r="E212">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F212">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5998,22 +6025,22 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C213">
-        <v>0.3411530774238462</v>
+        <v>0.3351332911281419</v>
       </c>
       <c r="D213">
-        <v>0.00608692996685197</v>
+        <v>0.01734595926373559</v>
       </c>
       <c r="E213">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F213">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6021,22 +6048,22 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.3419736339788477</v>
+        <v>0.3356085730271909</v>
       </c>
       <c r="D214">
-        <v>0.00612391913974151</v>
+        <v>0.01647861041002751</v>
       </c>
       <c r="E214">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F214">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G214" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6044,22 +6071,22 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C215">
-        <v>0.3472557487262201</v>
+        <v>0.3379641601587849</v>
       </c>
       <c r="D215">
-        <v>0.01089715684699425</v>
+        <v>0.006309286976367108</v>
       </c>
       <c r="E215">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F215">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G215" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6067,22 +6094,91 @@
         <v>214</v>
       </c>
       <c r="B216">
+        <v>9</v>
+      </c>
+      <c r="C216">
+        <v>0.3411530774238462</v>
+      </c>
+      <c r="D216">
+        <v>0.00608692996685197</v>
+      </c>
+      <c r="E216">
+        <v>32</v>
+      </c>
+      <c r="F216">
+        <v>23</v>
+      </c>
+      <c r="G216" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>11</v>
+      </c>
+      <c r="C217">
+        <v>0.3419736339788477</v>
+      </c>
+      <c r="D217">
+        <v>0.00612391913974151</v>
+      </c>
+      <c r="E217">
+        <v>54</v>
+      </c>
+      <c r="F217">
+        <v>3</v>
+      </c>
+      <c r="G217" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>10</v>
+      </c>
+      <c r="C218">
+        <v>0.3472557487262201</v>
+      </c>
+      <c r="D218">
+        <v>0.01089715684699425</v>
+      </c>
+      <c r="E218">
+        <v>37</v>
+      </c>
+      <c r="F218">
+        <v>23</v>
+      </c>
+      <c r="G218" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
         <v>12</v>
       </c>
-      <c r="C216">
+      <c r="C219">
         <v>0.3589795797919297</v>
       </c>
-      <c r="D216">
+      <c r="D219">
         <v>0.01145351335932966</v>
       </c>
-      <c r="E216">
+      <c r="E219">
         <v>87</v>
       </c>
-      <c r="F216">
-        <v>5</v>
-      </c>
-      <c r="G216" t="s">
-        <v>203</v>
+      <c r="F219">
+        <v>3</v>
+      </c>
+      <c r="G219" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6103,13 +6199,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6117,13 +6213,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E2">
         <v>0.01828303033747865</v>
@@ -6134,13 +6230,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>0.01834114378558395</v>
@@ -6151,13 +6247,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0.01838752336305806</v>
@@ -6168,13 +6264,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E5">
         <v>0.01842051701247888</v>
@@ -6185,13 +6281,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>0.01845842649993083</v>
@@ -6202,13 +6298,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E7">
         <v>0.01851101819189591</v>
@@ -6219,13 +6315,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E8">
         <v>0.01854177366812104</v>
@@ -6236,13 +6332,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E9">
         <v>0.01856711045923892</v>
@@ -6253,13 +6349,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E10">
         <v>0.01862757791737892</v>
@@ -6270,389 +6366,440 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E11">
-        <v>0.02117215770008878</v>
+        <v>0.02095393823492557</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E12">
-        <v>0.02173818922432688</v>
+        <v>0.02118194491872843</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E13">
-        <v>0.02185061538252496</v>
+        <v>0.02140258327152884</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E14">
-        <v>0.02188230668711158</v>
+        <v>0.02150517220370347</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E15">
-        <v>0.0219255464714384</v>
+        <v>0.02153767963793785</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E16">
-        <v>0.0221623335145934</v>
+        <v>0.02162394033404528</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E17">
-        <v>0.022269565342873</v>
+        <v>0.02180877257308929</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E18">
-        <v>0.02777496024533658</v>
+        <v>0.02483560830132239</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E19">
-        <v>0.02791332289309389</v>
+        <v>0.02521028477834684</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E20">
-        <v>0.0281762497223398</v>
+        <v>0.02560034310947839</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E21">
-        <v>0.0281982257344803</v>
+        <v>0.02777496024533658</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E22">
-        <v>0.02835071661869653</v>
+        <v>0.02791332289309389</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E23">
-        <v>0.02847168968973282</v>
+        <v>0.0281762497223398</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E24">
-        <v>0.09346956797871625</v>
+        <v>0.0281982257344803</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E25">
-        <v>0.09644717224391226</v>
+        <v>0.02835071661869653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E26">
-        <v>0.1063973608153731</v>
+        <v>0.02847168968973282</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E27">
-        <v>0.1112371132621206</v>
+        <v>0.09346956797871625</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E28">
-        <v>0.1131990848876678</v>
+        <v>0.09644717224391226</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E29">
-        <v>0.1163292063499252</v>
+        <v>0.1063973608153731</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E30">
-        <v>0.1180341836930632</v>
+        <v>0.1112371132621206</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E31">
-        <v>0.1211645889882844</v>
+        <v>0.1131990848876678</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E32">
-        <v>0.1227219266488615</v>
+        <v>0.1163292063499252</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E33">
+        <v>0.1180341836930632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34">
+        <v>0.1211645889882844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>141</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35">
+        <v>0.1227219266488615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>166</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36">
         <v>0.1678298666222684</v>
       </c>
     </row>
@@ -6671,890 +6818,890 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
+        <v>19</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
       <c r="C15">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>9</v>
       </c>
       <c r="C31">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
       <c r="C34">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>11</v>
       </c>
       <c r="C42">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>12</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
+        <v>66</v>
+      </c>
+      <c r="B56">
         <v>17</v>
       </c>
-      <c r="B56">
-        <v>16</v>
-      </c>
       <c r="C56">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B69">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B70">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C70">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B71">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C72">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B73">
+        <v>27</v>
+      </c>
+      <c r="C73">
         <v>24</v>
-      </c>
-      <c r="C73">
-        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C75">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C79">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B80">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/CCRCs_Clustering/Results/Clustering_results_DCgain_vdc.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_DCgain_vdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="268">
   <si>
     <t>leaf</t>
   </si>
@@ -432,6 +432,9 @@
     <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pmmc3&lt;=0.561" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pg3&gt;0.191" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.212" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg2&gt;0.043" -&gt; </t>
   </si>
   <si>
@@ -441,6 +444,9 @@
     <t xml:space="preserve">"Pmmc3&gt;0.257" -&gt; "Pmmc3&lt;=0.397" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pg3&lt;=0.191" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Qg3&gt;0.239" -&gt; </t>
   </si>
   <si>
@@ -450,6 +456,9 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Qg3&lt;=0.239" -&gt; "Qg1&gt;0.171" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.397" -&gt; "Pg1&gt;0.404" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.619" -&gt; "Qg3&lt;=0.239" -&gt; "Qg1&lt;=0.171" -&gt; </t>
   </si>
   <si>
@@ -468,6 +477,9 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.128" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.397" -&gt; "Pg1&lt;=0.404" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.202" -&gt; "Pl7&lt;=-0.166" -&gt; "Qg2&gt;0.047" -&gt; </t>
   </si>
   <si>
@@ -486,96 +498,120 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.44" -&gt; "Pmmc3&lt;=-0.103" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.44" -&gt; "Qg1&gt;0.166" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.44" -&gt; "Qg1&lt;=0.166" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Pmmc3&lt;=0.866" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.793" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.561" -&gt; "Pmmc3&lt;=0.719" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.598" -&gt; "Pmmc3&lt;=0.793" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pmmc3&lt;=0.598" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.149" -&gt; "Pmmc3&lt;=0.397" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.19" -&gt; "Pmmc3&lt;=0.397" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.149" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.19" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Qg1&gt;0.216" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.719" -&gt; "Pmmc3&lt;=0.866" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Qg1&lt;=0.216" -&gt; "Ql9&lt;=-0.236" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.561" -&gt; "Pmmc3&lt;=0.719" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.508" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Qg1&lt;=0.216" -&gt; "Ql9&gt;-0.236" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.508" -&gt; "Qg1&lt;=0.216" -&gt; "Ql9&gt;-0.236" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.149" -&gt; "Pmmc3&lt;=0.397" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.149" -&gt; </t>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&gt;-0.113" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&gt;-0.133" -&gt; "Ql2&lt;=-0.113" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&gt;-0.177" -&gt; "Ql2&lt;=-0.133" -&gt; "Pg2&lt;=0.051" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&gt;-0.177" -&gt; "Ql2&lt;=-0.133" -&gt; "Pg2&gt;0.051" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.239" -&gt; "Pmmc3&lt;=0.63" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Pl2&gt;-0.21" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&lt;=0.3" -&gt; "Ql2&lt;=-0.177" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Pl2&lt;=-0.21" -&gt; "Ql2&gt;-0.209" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pg1&gt;0.3" -&gt; "Pl2&lt;=-0.21" -&gt; "Ql2&lt;=-0.209" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.44" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.017" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&gt;-0.17" -&gt; "Pg1&gt;0.516" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&gt;-0.17" -&gt; "Pg1&lt;=0.516" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pl5&gt;-0.13" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.017" -&gt; "Pmmc3&lt;=0.305" -&gt; "Ql2&lt;=-0.17" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; "Pl5&lt;=-0.13" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl5&lt;=-0.13" -&gt; "Ql2&gt;-0.175" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.63" -&gt; "Pl5&lt;=-0.13" -&gt; "Ql2&lt;=-0.175" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.754" -&gt; "Ql9&gt;-0.2" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.754" -&gt; "Ql9&lt;=-0.2" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.049" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.278" -&gt; "Qg3&gt;0.159" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.622" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.049" -&gt; "Pmmc3&lt;=0.278" -&gt; "Qg3&lt;=0.159" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.524" -&gt; "Pg1&gt;0.262" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=-0.452" -&gt; "Qg1&lt;=0.166" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.622" -&gt; "Pmmc3&lt;=-0.452" -&gt; "Qg1&gt;0.166" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.524" -&gt; "Pg1&lt;=0.262" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.452" -&gt; "Pmmc3&lt;=-0.31" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.524" -&gt; "Pmmc3&lt;=0.682" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.682" -&gt; "Qg3&gt;0.081" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.31" -&gt; "Pmmc3&lt;=-0.186" -&gt; "Ql2&gt;-0.271" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.682" -&gt; "Qg3&lt;=0.081" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.186" -&gt; "Ql2&gt;-0.271" -&gt; </t>
   </si>
   <si>
@@ -651,10 +687,10 @@
     <t>ind value</t>
   </si>
   <si>
-    <t>[55, 50, 49, 48]</t>
-  </si>
-  <si>
-    <t>[52, 47]</t>
+    <t>[50, 48, 55, 49]</t>
+  </si>
+  <si>
+    <t>[47, 52]</t>
   </si>
   <si>
     <t>[64]</t>
@@ -663,7 +699,7 @@
     <t>[62]</t>
   </si>
   <si>
-    <t>[46, 61, 66, 86, 81, 51, 91]</t>
+    <t>[61, 81, 66, 86, 51, 46, 91]</t>
   </si>
   <si>
     <t>[41]</t>
@@ -672,7 +708,7 @@
     <t>[32]</t>
   </si>
   <si>
-    <t>[12, 22]</t>
+    <t>[12]</t>
   </si>
   <si>
     <t>Pl2&gt;-0.227 and Pl5&gt;-0.092</t>
@@ -777,7 +813,7 @@
     <t>Pmmc3&gt;0.128 and Pmmc3&lt;=0.257</t>
   </si>
   <si>
-    <t>Pmmc3&lt;=-0.103 and Qg1&lt;=0.216 and Ql9&lt;=-0.236</t>
+    <t>Pmmc3&lt;=-0.44 and Qg1&lt;=0.166</t>
   </si>
   <si>
     <t>lab</t>
@@ -1141,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1207,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1230,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1253,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1276,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1299,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1322,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1345,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1368,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1391,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1414,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1437,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1460,7 +1496,7 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1483,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1506,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1529,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1552,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1575,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1598,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1621,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1644,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1667,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1690,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1713,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1736,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1759,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1782,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1805,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1828,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1851,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1874,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1897,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1920,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1943,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1966,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1989,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -2012,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -2035,7 +2071,7 @@
         <v>35</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -2058,7 +2094,7 @@
         <v>28</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -2081,7 +2117,7 @@
         <v>35</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -2104,7 +2140,7 @@
         <v>28</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -2127,7 +2163,7 @@
         <v>35</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -2150,7 +2186,7 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -2173,7 +2209,7 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -2196,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -2219,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -2242,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="F48">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -2265,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="F49">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -2288,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -2311,7 +2347,7 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -2334,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -2357,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -2380,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -2403,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -2426,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2449,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="F57">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -2472,7 +2508,7 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2495,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="F59">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2518,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2541,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -2564,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
@@ -2587,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="F63">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2610,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -2633,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2656,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2679,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2702,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2725,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2748,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2771,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="F71">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
         <v>75</v>
@@ -2794,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
@@ -2817,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -2840,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="F74">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
         <v>78</v>
@@ -2863,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2886,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="F76">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
@@ -2909,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2932,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
@@ -2955,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2978,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -3001,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="F81">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -3024,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
         <v>86</v>
@@ -3047,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -3070,7 +3106,7 @@
         <v>7</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
@@ -3093,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>
@@ -3116,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -3139,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -3162,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="F88">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -3185,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
@@ -3208,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -3231,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>
@@ -3254,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G92" t="s">
         <v>96</v>
@@ -3277,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
@@ -3300,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
         <v>98</v>
@@ -3484,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="F102">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>106</v>
@@ -3507,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="F103">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>107</v>
@@ -3530,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
         <v>108</v>
@@ -3553,7 +3589,7 @@
         <v>40</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
         <v>109</v>
@@ -3576,7 +3612,7 @@
         <v>8</v>
       </c>
       <c r="F106">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>110</v>
@@ -3599,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="F107">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>111</v>
@@ -3622,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="F108">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>112</v>
@@ -3645,7 +3681,7 @@
         <v>8</v>
       </c>
       <c r="F109">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
         <v>113</v>
@@ -3668,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="F110">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -3691,7 +3727,7 @@
         <v>56</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
         <v>115</v>
@@ -3714,7 +3750,7 @@
         <v>12</v>
       </c>
       <c r="F112">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>116</v>
@@ -3737,7 +3773,7 @@
         <v>56</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
         <v>117</v>
@@ -3760,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="F114">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
         <v>118</v>
@@ -3783,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="F115">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>119</v>
@@ -3806,7 +3842,7 @@
         <v>48</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
         <v>120</v>
@@ -3829,7 +3865,7 @@
         <v>40</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
         <v>121</v>
@@ -3852,7 +3888,7 @@
         <v>32</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
         <v>122</v>
@@ -3875,7 +3911,7 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
         <v>123</v>
@@ -3898,7 +3934,7 @@
         <v>40</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
         <v>124</v>
@@ -3921,7 +3957,7 @@
         <v>10</v>
       </c>
       <c r="F121">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
         <v>125</v>
@@ -3944,7 +3980,7 @@
         <v>14</v>
       </c>
       <c r="F122">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
         <v>126</v>
@@ -3967,7 +4003,7 @@
         <v>7</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
         <v>127</v>
@@ -3990,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="F124">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G124" t="s">
         <v>109</v>
@@ -4013,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
         <v>128</v>
@@ -4036,7 +4072,7 @@
         <v>3</v>
       </c>
       <c r="F126">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>129</v>
@@ -4059,7 +4095,7 @@
         <v>8</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
         <v>130</v>
@@ -4082,7 +4118,7 @@
         <v>4</v>
       </c>
       <c r="F128">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
         <v>131</v>
@@ -4105,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
         <v>132</v>
@@ -4128,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>133</v>
@@ -4151,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="F131">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G131" t="s">
         <v>115</v>
@@ -4174,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
         <v>134</v>
@@ -4197,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="F133">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>64</v>
@@ -4220,7 +4256,7 @@
         <v>13</v>
       </c>
       <c r="F134">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G134" t="s">
         <v>135</v>
@@ -4243,7 +4279,7 @@
         <v>7</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
         <v>136</v>
@@ -4266,7 +4302,7 @@
         <v>14</v>
       </c>
       <c r="F136">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G136" t="s">
         <v>117</v>
@@ -4289,7 +4325,7 @@
         <v>8</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
         <v>137</v>
@@ -4300,19 +4336,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C138">
-        <v>0.1193649140143615</v>
+        <v>0.1193238497689458</v>
       </c>
       <c r="D138">
-        <v>0.0009610470466512589</v>
+        <v>0.001770317004437309</v>
       </c>
       <c r="E138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F138">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
         <v>138</v>
@@ -4323,19 +4359,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139">
-        <v>0.1201289509463142</v>
+        <v>0.1193649140143615</v>
       </c>
       <c r="D139">
-        <v>0.001219331184923659</v>
+        <v>0.0009610470466512589</v>
       </c>
       <c r="E139">
         <v>8</v>
       </c>
       <c r="F139">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G139" t="s">
         <v>139</v>
@@ -4346,19 +4382,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0.1211645889882844</v>
+        <v>0.1201289509463142</v>
       </c>
       <c r="D140">
-        <v>0.0007145148955964969</v>
+        <v>0.001219331184923659</v>
       </c>
       <c r="E140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G140" t="s">
         <v>140</v>
@@ -4369,22 +4405,22 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.1217901319647683</v>
+        <v>0.1211645889882844</v>
       </c>
       <c r="D141">
-        <v>0.00120859244740289</v>
+        <v>0.0007145148955964969</v>
       </c>
       <c r="E141">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F141">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4392,22 +4428,22 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>0.1226563389639036</v>
+        <v>0.1217901319647683</v>
       </c>
       <c r="D142">
-        <v>0.003591917091676315</v>
+        <v>0.00120859244740289</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F142">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G142" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4415,19 +4451,19 @@
         <v>141</v>
       </c>
       <c r="B143">
+        <v>11</v>
+      </c>
+      <c r="C143">
+        <v>0.1225622476773613</v>
+      </c>
+      <c r="D143">
+        <v>0.0009290469351063651</v>
+      </c>
+      <c r="E143">
+        <v>19</v>
+      </c>
+      <c r="F143">
         <v>6</v>
-      </c>
-      <c r="C143">
-        <v>0.1227219266488615</v>
-      </c>
-      <c r="D143">
-        <v>0.001410620590291796</v>
-      </c>
-      <c r="E143">
-        <v>7</v>
-      </c>
-      <c r="F143">
-        <v>7</v>
       </c>
       <c r="G143" t="s">
         <v>142</v>
@@ -4438,19 +4474,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.1236659118055674</v>
+        <v>0.1226563389639036</v>
       </c>
       <c r="D144">
-        <v>0.003614340583182385</v>
+        <v>0.003591917091676315</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F144">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
         <v>143</v>
@@ -4461,19 +4497,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.1249908758046277</v>
+        <v>0.1227219266488615</v>
       </c>
       <c r="D145">
-        <v>0.003668925723967605</v>
+        <v>0.001410620590291796</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F145">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
         <v>144</v>
@@ -4484,19 +4520,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>0.1249943759624367</v>
+        <v>0.1236659118055674</v>
       </c>
       <c r="D146">
-        <v>0.006262250956500791</v>
+        <v>0.003614340583182385</v>
       </c>
       <c r="E146">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
         <v>145</v>
@@ -4507,22 +4543,22 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>0.1252341429957625</v>
+        <v>0.1238148114386962</v>
       </c>
       <c r="D147">
-        <v>0.003206059841360337</v>
+        <v>0.001413538832176747</v>
       </c>
       <c r="E147">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4530,22 +4566,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>0.1256679397021836</v>
+        <v>0.1249908758046277</v>
       </c>
       <c r="D148">
-        <v>0.003864407782350145</v>
+        <v>0.003668925723967605</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4553,22 +4589,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149">
-        <v>0.1260845210314022</v>
+        <v>0.1249943759624367</v>
       </c>
       <c r="D149">
-        <v>0.003905643844434178</v>
+        <v>0.006262250956500791</v>
       </c>
       <c r="E149">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F149">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4576,22 +4612,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>0.1261478367706711</v>
+        <v>0.1252341429957625</v>
       </c>
       <c r="D150">
-        <v>0.006480703513510697</v>
+        <v>0.003206059841360337</v>
       </c>
       <c r="E150">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F150">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G150" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4599,19 +4635,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C151">
-        <v>0.1262574331063575</v>
+        <v>0.1256679397021836</v>
       </c>
       <c r="D151">
-        <v>0.0008472506248913955</v>
+        <v>0.003864407782350145</v>
       </c>
       <c r="E151">
+        <v>8</v>
+      </c>
+      <c r="F151">
         <v>11</v>
-      </c>
-      <c r="F151">
-        <v>7</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4622,19 +4658,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152">
-        <v>0.1265202507764234</v>
+        <v>0.1260845210314022</v>
       </c>
       <c r="D152">
-        <v>0.006559979858141653</v>
+        <v>0.003905643844434178</v>
       </c>
       <c r="E152">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F152">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4645,22 +4681,22 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>0.1269619593991031</v>
+        <v>0.1261478367706711</v>
       </c>
       <c r="D153">
-        <v>0.00406231089589401</v>
+        <v>0.006480703513510697</v>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F153">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4671,19 +4707,19 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>0.127183200172686</v>
+        <v>0.1262574331063575</v>
       </c>
       <c r="D154">
-        <v>0.006523700820624237</v>
+        <v>0.0008472506248913955</v>
       </c>
       <c r="E154">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F154">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4691,22 +4727,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155">
-        <v>0.1275877547988019</v>
+        <v>0.1264724976987281</v>
       </c>
       <c r="D155">
-        <v>0.007032071287910044</v>
+        <v>0.001160142716168706</v>
       </c>
       <c r="E155">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4714,22 +4750,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>0.1285701853410304</v>
+        <v>0.1265202507764234</v>
       </c>
       <c r="D156">
-        <v>0.007152169604928035</v>
+        <v>0.006559979858141653</v>
       </c>
       <c r="E156">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F156">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4737,22 +4773,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>0.1306577882688228</v>
+        <v>0.1269619593991031</v>
       </c>
       <c r="D157">
-        <v>0.007384191936413875</v>
+        <v>0.00406231089589401</v>
       </c>
       <c r="E157">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F157">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4760,19 +4796,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>0.1308870914038107</v>
+        <v>0.127183200172686</v>
       </c>
       <c r="D158">
-        <v>0.001338401306180988</v>
+        <v>0.006523700820624237</v>
       </c>
       <c r="E158">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G158" t="s">
         <v>155</v>
@@ -4783,22 +4819,22 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C159">
-        <v>0.1341524093317911</v>
+        <v>0.1275877547988019</v>
       </c>
       <c r="D159">
-        <v>0.007956530452761516</v>
+        <v>0.007032071287910044</v>
       </c>
       <c r="E159">
         <v>18</v>
       </c>
       <c r="F159">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4806,22 +4842,22 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C160">
-        <v>0.1432980867314463</v>
+        <v>0.1285701853410304</v>
       </c>
       <c r="D160">
-        <v>0.0244620933584411</v>
+        <v>0.007152169604928035</v>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F160">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4829,22 +4865,22 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C161">
-        <v>0.1474918594393092</v>
+        <v>0.1306577882688228</v>
       </c>
       <c r="D161">
-        <v>0.02621020026329882</v>
+        <v>0.007384191936413875</v>
       </c>
       <c r="E161">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F161">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4852,22 +4888,22 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>0.149955687320825</v>
+        <v>0.1308870914038107</v>
       </c>
       <c r="D162">
-        <v>0.02818162136524565</v>
+        <v>0.001338401306180988</v>
       </c>
       <c r="E162">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F162">
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4875,22 +4911,22 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.153778608814952</v>
+        <v>0.1309976919059362</v>
       </c>
       <c r="D163">
-        <v>0.0304341777303655</v>
+        <v>0.002172506100294917</v>
       </c>
       <c r="E163">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F163">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G163" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4898,22 +4934,22 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.1586298791011223</v>
+        <v>0.1336729041228219</v>
       </c>
       <c r="D164">
-        <v>0.03301608967742592</v>
+        <v>0.001726679189512022</v>
       </c>
       <c r="E164">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F164">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G164" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4921,22 +4957,22 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C165">
-        <v>0.159972250341915</v>
+        <v>0.1341524093317911</v>
       </c>
       <c r="D165">
-        <v>0.002851999114081611</v>
+        <v>0.007956530452761516</v>
       </c>
       <c r="E165">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F165">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4944,22 +4980,22 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.1645663975626196</v>
+        <v>0.1364804902482616</v>
       </c>
       <c r="D166">
-        <v>0.03983442898073363</v>
+        <v>0.001678981353271954</v>
       </c>
       <c r="E166">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F166">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G166" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4967,22 +5003,22 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167">
-        <v>0.1647997312583445</v>
+        <v>0.159972250341915</v>
       </c>
       <c r="D167">
-        <v>0.001233373889937689</v>
+        <v>0.002851999114081611</v>
       </c>
       <c r="E167">
         <v>7</v>
       </c>
       <c r="F167">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4990,19 +5026,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C168">
-        <v>0.1678298666222684</v>
+        <v>0.1647997312583445</v>
       </c>
       <c r="D168">
-        <v>0.04034028650963296</v>
+        <v>0.001233373889937689</v>
       </c>
       <c r="E168">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F168">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>163</v>
@@ -5013,19 +5049,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C169">
-        <v>0.1695801084875108</v>
+        <v>0.1669861813348909</v>
       </c>
       <c r="D169">
-        <v>0.001798932978641081</v>
+        <v>0.003441691455669592</v>
       </c>
       <c r="E169">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F169">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G169" t="s">
         <v>164</v>
@@ -5036,19 +5072,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>0.1702612908190806</v>
+        <v>0.1695801084875108</v>
       </c>
       <c r="D170">
-        <v>0.03951830168334317</v>
+        <v>0.001798932978641081</v>
       </c>
       <c r="E170">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F170">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>165</v>
@@ -5059,22 +5095,22 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.1741208872637858</v>
+        <v>0.1729985624481504</v>
       </c>
       <c r="D171">
-        <v>0.00169009973470052</v>
+        <v>0.001625108405678389</v>
       </c>
       <c r="E171">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F171">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G171" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5082,22 +5118,22 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172">
-        <v>0.1791983458170174</v>
+        <v>0.1741208872637858</v>
       </c>
       <c r="D172">
-        <v>0.0451719412424862</v>
+        <v>0.00169009973470052</v>
       </c>
       <c r="E172">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F172">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5105,22 +5141,22 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C173">
-        <v>0.1808151699589275</v>
+        <v>0.1773820178672931</v>
       </c>
       <c r="D173">
-        <v>0.006875871153287278</v>
+        <v>0.001865957883475475</v>
       </c>
       <c r="E173">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G173" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5128,22 +5164,22 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C174">
-        <v>0.1818863332992114</v>
+        <v>0.1808151699589275</v>
       </c>
       <c r="D174">
-        <v>0.002442441383401085</v>
+        <v>0.006875871153287278</v>
       </c>
       <c r="E174">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F174">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5154,19 +5190,19 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>0.1852125836331775</v>
+        <v>0.1818863332992114</v>
       </c>
       <c r="D175">
-        <v>0.005689968931585719</v>
+        <v>0.002442441383401085</v>
       </c>
       <c r="E175">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5174,22 +5210,22 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176">
-        <v>0.1883023848525239</v>
+        <v>0.1833779000795215</v>
       </c>
       <c r="D176">
-        <v>0.005628697032753552</v>
+        <v>0.002238750518148538</v>
       </c>
       <c r="E176">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G176" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5197,22 +5233,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C177">
-        <v>0.1910241173180532</v>
+        <v>0.1852125836331775</v>
       </c>
       <c r="D177">
-        <v>0.001936755053811476</v>
+        <v>0.005689968931585719</v>
       </c>
       <c r="E177">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F177">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5220,22 +5256,22 @@
         <v>176</v>
       </c>
       <c r="B178">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>0.1883023848525239</v>
+      </c>
+      <c r="D178">
+        <v>0.005628697032753552</v>
+      </c>
+      <c r="E178">
+        <v>16</v>
+      </c>
+      <c r="F178">
         <v>8</v>
       </c>
-      <c r="C178">
-        <v>0.1940928277637726</v>
-      </c>
-      <c r="D178">
-        <v>0.004902293712425997</v>
-      </c>
-      <c r="E178">
-        <v>24</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
       <c r="G178" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5243,22 +5279,22 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C179">
-        <v>0.200613186514965</v>
+        <v>0.1910241173180532</v>
       </c>
       <c r="D179">
-        <v>0.003906437780680041</v>
+        <v>0.001936755053811476</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F179">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5266,22 +5302,22 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>0.2017705565278532</v>
+        <v>0.191030264577974</v>
       </c>
       <c r="D180">
-        <v>0.004803304880173069</v>
+        <v>0.002609637013385912</v>
       </c>
       <c r="E180">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G180" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5289,22 +5325,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C181">
-        <v>0.2144638808304339</v>
+        <v>0.1940928277637726</v>
       </c>
       <c r="D181">
-        <v>0.005695992061678142</v>
+        <v>0.004902293712425997</v>
       </c>
       <c r="E181">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G181" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5312,22 +5348,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>0.2335250135672382</v>
+        <v>0.200613186514965</v>
       </c>
       <c r="D182">
-        <v>0.005913740982556632</v>
+        <v>0.003906437780680041</v>
       </c>
       <c r="E182">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5335,22 +5371,22 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C183">
-        <v>0.2342464881415861</v>
+        <v>0.2017705565278532</v>
       </c>
       <c r="D183">
-        <v>0.07398356923655258</v>
+        <v>0.004803304880173069</v>
       </c>
       <c r="E183">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F183">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5358,22 +5394,22 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C184">
-        <v>0.2354415141169881</v>
+        <v>0.2057639526794808</v>
       </c>
       <c r="D184">
-        <v>0.07416973429204751</v>
+        <v>0.00489442037812273</v>
       </c>
       <c r="E184">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F184">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G184" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5381,22 +5417,22 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C185">
-        <v>0.2364151897024137</v>
+        <v>0.2124688482841027</v>
       </c>
       <c r="D185">
-        <v>0.07391777928820258</v>
+        <v>0.07897021277968126</v>
       </c>
       <c r="E185">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F185">
         <v>20</v>
       </c>
       <c r="G185" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5404,22 +5440,22 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C186">
-        <v>0.2373754098806763</v>
+        <v>0.2131755854783532</v>
       </c>
       <c r="D186">
-        <v>0.0737425730311513</v>
+        <v>0.07884762918799426</v>
       </c>
       <c r="E186">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F186">
         <v>20</v>
       </c>
       <c r="G186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5427,22 +5463,22 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C187">
-        <v>0.2375751595313553</v>
+        <v>0.2136811166708237</v>
       </c>
       <c r="D187">
-        <v>0.07458637324370389</v>
+        <v>0.07830125238679365</v>
       </c>
       <c r="E187">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F187">
         <v>20</v>
       </c>
       <c r="G187" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5450,22 +5486,22 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>0.2404960749074485</v>
+        <v>0.214210374694785</v>
       </c>
       <c r="D188">
-        <v>0.07352135923030112</v>
+        <v>0.08238272164471817</v>
       </c>
       <c r="E188">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F188">
         <v>20</v>
       </c>
       <c r="G188" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5473,22 +5509,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189">
-        <v>0.2436594267050604</v>
+        <v>0.2144638808304339</v>
       </c>
       <c r="D189">
-        <v>0.07535160060201193</v>
+        <v>0.005695992061678142</v>
       </c>
       <c r="E189">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F189">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5496,13 +5532,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C190">
-        <v>0.2452536215698021</v>
+        <v>0.2146873984559954</v>
       </c>
       <c r="D190">
-        <v>0.07654810124530814</v>
+        <v>0.08051169671211705</v>
       </c>
       <c r="E190">
         <v>12</v>
@@ -5511,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="G190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5519,22 +5555,22 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>0.2670009402336815</v>
+        <v>0.2151722025870087</v>
       </c>
       <c r="D191">
-        <v>0.002803658650641328</v>
+        <v>0.07845257084700456</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F191">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G191" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5542,22 +5578,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C192">
-        <v>0.2726181013770946</v>
+        <v>0.2161527169041622</v>
       </c>
       <c r="D192">
-        <v>0.004709377695885404</v>
+        <v>0.08151065810849586</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F192">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5565,22 +5601,22 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C193">
-        <v>0.2820698438532309</v>
+        <v>0.2176455011097002</v>
       </c>
       <c r="D193">
-        <v>0.002534615677952631</v>
+        <v>0.08480519931182678</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5588,22 +5624,22 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>0.2852572630067072</v>
+        <v>0.2211290827148146</v>
       </c>
       <c r="D194">
-        <v>0.0005013548153880719</v>
+        <v>0.004707187439746329</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F194">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5611,22 +5647,22 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C195">
-        <v>0.286773635521598</v>
+        <v>0.2335250135672382</v>
       </c>
       <c r="D195">
-        <v>0.0003740266220112631</v>
+        <v>0.005913740982556632</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F195">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5634,22 +5670,22 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>0.2935777955606507</v>
+        <v>0.2670009402336815</v>
       </c>
       <c r="D196">
-        <v>0.002717707463873651</v>
+        <v>0.002803658650641328</v>
       </c>
       <c r="E196">
         <v>2</v>
       </c>
       <c r="F196">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G196" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5657,22 +5693,22 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C197">
-        <v>0.3031747015379926</v>
+        <v>0.2726181013770946</v>
       </c>
       <c r="D197">
-        <v>0.001002965359442552</v>
+        <v>0.004709377695885404</v>
       </c>
       <c r="E197">
         <v>2</v>
       </c>
       <c r="F197">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5680,22 +5716,22 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>0.3128030880941868</v>
+        <v>0.2742093579915102</v>
       </c>
       <c r="D198">
-        <v>0.003631593321255613</v>
+        <v>0.002484504765842245</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F198">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5703,22 +5739,22 @@
         <v>197</v>
       </c>
       <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>0.2785352167984388</v>
+      </c>
+      <c r="D199">
+        <v>0.001027571380546675</v>
+      </c>
+      <c r="E199">
         <v>4</v>
       </c>
-      <c r="C199">
-        <v>0.3199804324404124</v>
-      </c>
-      <c r="D199">
-        <v>0.01805032916102249</v>
-      </c>
-      <c r="E199">
-        <v>24</v>
-      </c>
       <c r="F199">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5726,22 +5762,22 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200">
-        <v>0.322111908531024</v>
+        <v>0.2820698438532309</v>
       </c>
       <c r="D200">
-        <v>0.01453531079612563</v>
+        <v>0.002534615677952631</v>
       </c>
       <c r="E200">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F200">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G200" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5752,19 +5788,19 @@
         <v>5</v>
       </c>
       <c r="C201">
-        <v>0.3241088513916759</v>
+        <v>0.2833580179063008</v>
       </c>
       <c r="D201">
-        <v>0.02629184497757865</v>
+        <v>0.002898107089669436</v>
       </c>
       <c r="E201">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F201">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5772,22 +5808,22 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C202">
-        <v>0.3243895492548768</v>
+        <v>0.284452958782165</v>
       </c>
       <c r="D202">
-        <v>0.01554987700902913</v>
+        <v>0.001323322415281458</v>
       </c>
       <c r="E202">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F202">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5798,19 +5834,19 @@
         <v>9</v>
       </c>
       <c r="C203">
-        <v>0.3266863298058949</v>
+        <v>0.2852572630067072</v>
       </c>
       <c r="D203">
-        <v>0.01340456794021691</v>
+        <v>0.0005013548153880719</v>
       </c>
       <c r="E203">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G203" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5818,22 +5854,22 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C204">
-        <v>0.3268577595747851</v>
+        <v>0.286773635521598</v>
       </c>
       <c r="D204">
-        <v>0.0271314901047055</v>
+        <v>0.0003740266220112631</v>
       </c>
       <c r="E204">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F204">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G204" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5841,22 +5877,22 @@
         <v>203</v>
       </c>
       <c r="B205">
+        <v>8</v>
+      </c>
+      <c r="C205">
+        <v>0.2922444192646869</v>
+      </c>
+      <c r="D205">
+        <v>0.001946071571751939</v>
+      </c>
+      <c r="E205">
         <v>4</v>
       </c>
-      <c r="C205">
-        <v>0.3283835080844766</v>
-      </c>
-      <c r="D205">
-        <v>0.02589930184345553</v>
-      </c>
-      <c r="E205">
-        <v>60</v>
-      </c>
       <c r="F205">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5864,22 +5900,22 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C206">
-        <v>0.3292586928487845</v>
+        <v>0.2935777955606507</v>
       </c>
       <c r="D206">
-        <v>0.01414576488586381</v>
+        <v>0.002717707463873651</v>
       </c>
       <c r="E206">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G206" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5887,22 +5923,22 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C207">
-        <v>0.33023849126282</v>
+        <v>0.2950251776615252</v>
       </c>
       <c r="D207">
-        <v>0.01419814290865973</v>
+        <v>0.005190915122467269</v>
       </c>
       <c r="E207">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F207">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5910,22 +5946,22 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C208">
-        <v>0.3307131202219913</v>
+        <v>0.3014251119639503</v>
       </c>
       <c r="D208">
-        <v>0.0173769736517306</v>
+        <v>0.002852066525935583</v>
       </c>
       <c r="E208">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5933,22 +5969,22 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C209">
-        <v>0.3307727699189123</v>
+        <v>0.3031747015379926</v>
       </c>
       <c r="D209">
-        <v>0.0268806689344617</v>
+        <v>0.001002965359442552</v>
       </c>
       <c r="E209">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F209">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G209" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5956,22 +5992,22 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C210">
-        <v>0.3326914082241708</v>
+        <v>0.3057150942309647</v>
       </c>
       <c r="D210">
-        <v>0.01248229298454495</v>
+        <v>0.001954092162420229</v>
       </c>
       <c r="E210">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F210">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5979,22 +6015,22 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C211">
-        <v>0.3331805666788898</v>
+        <v>0.3128030880941868</v>
       </c>
       <c r="D211">
-        <v>0.0172189845292531</v>
+        <v>0.003631593321255613</v>
       </c>
       <c r="E211">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F211">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6002,22 +6038,22 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>0.3348802457207022</v>
+        <v>0.3199804324404124</v>
       </c>
       <c r="D212">
-        <v>0.008462697504304976</v>
+        <v>0.01805032916102249</v>
       </c>
       <c r="E212">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6025,22 +6061,22 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>0.3351332911281419</v>
+        <v>0.322111908531024</v>
       </c>
       <c r="D213">
-        <v>0.01734595926373559</v>
+        <v>0.01453531079612563</v>
       </c>
       <c r="E213">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F213">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6048,22 +6084,22 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214">
-        <v>0.3356085730271909</v>
+        <v>0.3241088513916759</v>
       </c>
       <c r="D214">
-        <v>0.01647861041002751</v>
+        <v>0.02629184497757865</v>
       </c>
       <c r="E214">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F214">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6071,22 +6107,22 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C215">
-        <v>0.3379641601587849</v>
+        <v>0.3243895492548768</v>
       </c>
       <c r="D215">
-        <v>0.006309286976367108</v>
+        <v>0.01554987700902913</v>
       </c>
       <c r="E215">
+        <v>16</v>
+      </c>
+      <c r="F215">
         <v>2</v>
       </c>
-      <c r="F215">
-        <v>24</v>
-      </c>
       <c r="G215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6097,19 +6133,19 @@
         <v>9</v>
       </c>
       <c r="C216">
-        <v>0.3411530774238462</v>
+        <v>0.3266863298058949</v>
       </c>
       <c r="D216">
-        <v>0.00608692996685197</v>
+        <v>0.01340456794021691</v>
       </c>
       <c r="E216">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F216">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6117,22 +6153,22 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C217">
-        <v>0.3419736339788477</v>
+        <v>0.3268577595747851</v>
       </c>
       <c r="D217">
-        <v>0.00612391913974151</v>
+        <v>0.0271314901047055</v>
       </c>
       <c r="E217">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F217">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G217" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6140,22 +6176,22 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>0.3472557487262201</v>
+        <v>0.3283835080844766</v>
       </c>
       <c r="D218">
-        <v>0.01089715684699425</v>
+        <v>0.02589930184345553</v>
       </c>
       <c r="E218">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F218">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6163,22 +6199,321 @@
         <v>217</v>
       </c>
       <c r="B219">
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <v>0.3292586928487845</v>
+      </c>
+      <c r="D219">
+        <v>0.01414576488586381</v>
+      </c>
+      <c r="E219">
+        <v>20</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>8</v>
+      </c>
+      <c r="C220">
+        <v>0.33023849126282</v>
+      </c>
+      <c r="D220">
+        <v>0.01419814290865973</v>
+      </c>
+      <c r="E220">
+        <v>60</v>
+      </c>
+      <c r="F220">
+        <v>7</v>
+      </c>
+      <c r="G220" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
         <v>12</v>
       </c>
-      <c r="C219">
+      <c r="C221">
+        <v>0.3307131202219913</v>
+      </c>
+      <c r="D221">
+        <v>0.0173769736517306</v>
+      </c>
+      <c r="E221">
+        <v>18</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>0.3307727699189123</v>
+      </c>
+      <c r="D222">
+        <v>0.0268806689344617</v>
+      </c>
+      <c r="E222">
+        <v>30</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>0.3326914082241708</v>
+      </c>
+      <c r="D223">
+        <v>0.01248229298454495</v>
+      </c>
+      <c r="E223">
+        <v>36</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>0.3331805666788898</v>
+      </c>
+      <c r="D224">
+        <v>0.0172189845292531</v>
+      </c>
+      <c r="E224">
+        <v>54</v>
+      </c>
+      <c r="F224">
+        <v>7</v>
+      </c>
+      <c r="G224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>10</v>
+      </c>
+      <c r="C225">
+        <v>0.3348802457207022</v>
+      </c>
+      <c r="D225">
+        <v>0.008462697504304976</v>
+      </c>
+      <c r="E225">
+        <v>60</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+      <c r="G225" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>0.3351332911281419</v>
+      </c>
+      <c r="D226">
+        <v>0.01734595926373559</v>
+      </c>
+      <c r="E226">
+        <v>28</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>0.3356085730271909</v>
+      </c>
+      <c r="D227">
+        <v>0.01647861041002751</v>
+      </c>
+      <c r="E227">
+        <v>36</v>
+      </c>
+      <c r="F227">
+        <v>25</v>
+      </c>
+      <c r="G227" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>13</v>
+      </c>
+      <c r="C228">
+        <v>0.3379641601587849</v>
+      </c>
+      <c r="D228">
+        <v>0.006309286976367108</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>22</v>
+      </c>
+      <c r="G228" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>9</v>
+      </c>
+      <c r="C229">
+        <v>0.3411530774238462</v>
+      </c>
+      <c r="D229">
+        <v>0.00608692996685197</v>
+      </c>
+      <c r="E229">
+        <v>32</v>
+      </c>
+      <c r="F229">
+        <v>25</v>
+      </c>
+      <c r="G229" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>11</v>
+      </c>
+      <c r="C230">
+        <v>0.3419736339788477</v>
+      </c>
+      <c r="D230">
+        <v>0.00612391913974151</v>
+      </c>
+      <c r="E230">
+        <v>54</v>
+      </c>
+      <c r="F230">
+        <v>7</v>
+      </c>
+      <c r="G230" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>0.3472557487262201</v>
+      </c>
+      <c r="D231">
+        <v>0.01089715684699425</v>
+      </c>
+      <c r="E231">
+        <v>37</v>
+      </c>
+      <c r="F231">
+        <v>25</v>
+      </c>
+      <c r="G231" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>12</v>
+      </c>
+      <c r="C232">
         <v>0.3589795797919297</v>
       </c>
-      <c r="D219">
+      <c r="D232">
         <v>0.01145351335932966</v>
       </c>
-      <c r="E219">
+      <c r="E232">
         <v>87</v>
       </c>
-      <c r="F219">
-        <v>3</v>
-      </c>
-      <c r="G219" t="s">
-        <v>207</v>
+      <c r="F232">
+        <v>7</v>
+      </c>
+      <c r="G232" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6199,13 +6534,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6213,13 +6548,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E2">
         <v>0.01828303033747865</v>
@@ -6230,13 +6565,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E3">
         <v>0.01834114378558395</v>
@@ -6247,13 +6582,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E4">
         <v>0.01838752336305806</v>
@@ -6264,13 +6599,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>0.01842051701247888</v>
@@ -6281,13 +6616,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>0.01845842649993083</v>
@@ -6298,13 +6633,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>0.01851101819189591</v>
@@ -6315,13 +6650,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E8">
         <v>0.01854177366812104</v>
@@ -6332,13 +6667,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E9">
         <v>0.01856711045923892</v>
@@ -6349,13 +6684,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E10">
         <v>0.01862757791737892</v>
@@ -6366,13 +6701,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E11">
         <v>0.02095393823492557</v>
@@ -6383,13 +6718,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E12">
         <v>0.02118194491872843</v>
@@ -6400,13 +6735,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E13">
         <v>0.02140258327152884</v>
@@ -6417,13 +6752,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E14">
         <v>0.02150517220370347</v>
@@ -6434,13 +6769,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E15">
         <v>0.02153767963793785</v>
@@ -6451,13 +6786,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E16">
         <v>0.02162394033404528</v>
@@ -6468,13 +6803,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E17">
         <v>0.02180877257308929</v>
@@ -6485,13 +6820,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E18">
         <v>0.02483560830132239</v>
@@ -6502,13 +6837,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E19">
         <v>0.02521028477834684</v>
@@ -6519,13 +6854,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E20">
         <v>0.02560034310947839</v>
@@ -6536,13 +6871,13 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E21">
         <v>0.02777496024533658</v>
@@ -6553,13 +6888,13 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E22">
         <v>0.02791332289309389</v>
@@ -6570,13 +6905,13 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E23">
         <v>0.0281762497223398</v>
@@ -6587,13 +6922,13 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E24">
         <v>0.0281982257344803</v>
@@ -6604,13 +6939,13 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E25">
         <v>0.02835071661869653</v>
@@ -6621,13 +6956,13 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E26">
         <v>0.02847168968973282</v>
@@ -6638,13 +6973,13 @@
         <v>112</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E27">
         <v>0.09346956797871625</v>
@@ -6655,13 +6990,13 @@
         <v>117</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E28">
         <v>0.09644717224391226</v>
@@ -6672,13 +7007,13 @@
         <v>120</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E29">
         <v>0.1063973608153731</v>
@@ -6689,13 +7024,13 @@
         <v>121</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E30">
         <v>0.1112371132621206</v>
@@ -6706,13 +7041,13 @@
         <v>125</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E31">
         <v>0.1131990848876678</v>
@@ -6723,13 +7058,13 @@
         <v>133</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E32">
         <v>0.1163292063499252</v>
@@ -6740,13 +7075,13 @@
         <v>135</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E33">
         <v>0.1180341836930632</v>
@@ -6754,16 +7089,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E34">
         <v>0.1211645889882844</v>
@@ -6771,16 +7106,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E35">
         <v>0.1227219266488615</v>
@@ -6788,19 +7123,19 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E36">
-        <v>0.1678298666222684</v>
+        <v>0.1364804902482616</v>
       </c>
     </row>
   </sheetData>
@@ -6818,549 +7153,549 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>9</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>11</v>
       </c>
       <c r="C42">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>12</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7387,321 +7722,321 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>19</v>
       </c>
       <c r="C59">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>20</v>
       </c>
       <c r="C61">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <v>20</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B63">
         <v>21</v>
       </c>
       <c r="C63">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B64">
         <v>21</v>
       </c>
       <c r="C64">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>25</v>
       </c>
       <c r="C70">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>28</v>
       </c>
       <c r="C75">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C77">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C78">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B80">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B81">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C81">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
